--- a/Commodities.xlsx
+++ b/Commodities.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372E1389-3A48-4DC4-B7F4-A589F672E6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3DD1AC-C73C-4537-93F9-37774B7BBBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1090" yWindow="0" windowWidth="16190" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="340" windowWidth="16190" windowHeight="10170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
+    <sheet name="Corn" sheetId="2" r:id="rId2"/>
+    <sheet name="Soybeans" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,12 +26,43 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+  <si>
+    <t>Corn</t>
+  </si>
+  <si>
+    <t>Production hiccups in SAM</t>
+  </si>
+  <si>
+    <t>Fun traders bullish</t>
+  </si>
+  <si>
+    <t>Acres up for 2025, but USDA not pushing it</t>
+  </si>
+  <si>
+    <t>Soybeans</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -52,13 +85,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -337,14 +375,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C3:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" location="Corn!A1" display="Corn" xr:uid="{444D8CD6-920D-4C30-BA5A-E1FA84F2FB86}"/>
+    <hyperlink ref="B7" location="Soybeans!A1" display="Soybeans" xr:uid="{33DB5011-47AE-46B7-823B-F30264F70A8E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E165E3B-2812-418A-BA5E-2BD08A1FA388}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="2">
+        <v>45708</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45708</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="3">
+        <v>45741</v>
+      </c>
+      <c r="C4">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="3">
+        <v>45802</v>
+      </c>
+      <c r="C5">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="3">
+        <v>45863</v>
+      </c>
+      <c r="C6">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="3">
+        <v>45925</v>
+      </c>
+      <c r="C7">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="3">
+        <v>46016</v>
+      </c>
+      <c r="C8">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="3">
+        <v>45742</v>
+      </c>
+      <c r="C9">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="3">
+        <v>45803</v>
+      </c>
+      <c r="C10">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{21921B5B-20BF-4CB4-AC20-04AECFB1D8D5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB6C7BA-262C-4899-BE72-FB33CE199B92}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{DBA19642-D105-4912-A7D1-F8DE5F2B29CB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Commodities.xlsx
+++ b/Commodities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3DD1AC-C73C-4537-93F9-37774B7BBBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2370C8D-F7F2-4942-9493-B5E01F6B913C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="340" windowWidth="16190" windowHeight="10170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="530" yWindow="0" windowWidth="16190" windowHeight="14010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
   <si>
     <t>Corn</t>
   </si>
@@ -45,6 +45,39 @@
   </si>
   <si>
     <t>main</t>
+  </si>
+  <si>
+    <t>Futures</t>
+  </si>
+  <si>
+    <t>Acres US</t>
+  </si>
+  <si>
+    <t>SAM</t>
+  </si>
+  <si>
+    <t>Funds</t>
+  </si>
+  <si>
+    <t>Mar25</t>
+  </si>
+  <si>
+    <t>May25</t>
+  </si>
+  <si>
+    <t>Jul25</t>
+  </si>
+  <si>
+    <t>Sep25</t>
+  </si>
+  <si>
+    <t>Dec25</t>
+  </si>
+  <si>
+    <t>Mar26</t>
+  </si>
+  <si>
+    <t>May26</t>
   </si>
 </sst>
 </file>
@@ -76,10 +109,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -89,11 +131,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -419,10 +462,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E165E3B-2812-418A-BA5E-2BD08A1FA388}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -436,6 +479,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
       <c r="B3" s="2">
         <v>45708</v>
       </c>
@@ -444,75 +488,144 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B4" s="3">
-        <v>45741</v>
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C4">
         <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="3">
-        <v>45802</v>
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C5">
         <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B6" s="3">
-        <v>45863</v>
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C6">
         <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B7" s="3">
-        <v>45925</v>
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C7">
         <v>482</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B8" s="3">
-        <v>46016</v>
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="C8">
         <v>479</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B9" s="3">
-        <v>45742</v>
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C9">
         <v>489</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B10" s="3">
-        <v>45803</v>
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="C10">
         <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -524,16 +637,155 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB6C7BA-262C-4899-BE72-FB33CE199B92}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2">
+        <v>45708</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45708</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Commodities.xlsx
+++ b/Commodities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2370C8D-F7F2-4942-9493-B5E01F6B913C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4451A40B-27FE-4E0C-9C86-8E9C281FF66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="530" yWindow="0" windowWidth="16190" windowHeight="14010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="10970" windowHeight="13820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
   <si>
     <t>Corn</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>May26</t>
+  </si>
+  <si>
+    <t>Nov25</t>
+  </si>
+  <si>
+    <t>Jan26</t>
+  </si>
+  <si>
+    <t>Aug25</t>
   </si>
 </sst>
 </file>
@@ -131,12 +140,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -462,23 +472,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E165E3B-2812-418A-BA5E-2BD08A1FA388}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="2">
         <v>45708</v>
@@ -486,8 +496,11 @@
       <c r="C3" s="2">
         <v>45708</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" s="2">
+        <v>45713</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -497,8 +510,11 @@
       <c r="C4">
         <v>499</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -508,8 +524,11 @@
       <c r="C5">
         <v>513</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -519,8 +538,11 @@
       <c r="C6">
         <v>517</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -530,8 +552,11 @@
       <c r="C7">
         <v>482</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -541,8 +566,11 @@
       <c r="C8">
         <v>479</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -552,8 +580,11 @@
       <c r="C9">
         <v>489</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -563,8 +594,11 @@
       <c r="C10">
         <v>496</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -572,7 +606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -580,7 +614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -588,13 +622,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
@@ -637,23 +671,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB6C7BA-262C-4899-BE72-FB33CE199B92}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="2">
         <v>45708</v>
@@ -661,85 +695,125 @@
       <c r="C3" s="2">
         <v>45708</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" s="2">
+        <v>45713</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="D11">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="D12">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">

--- a/Commodities.xlsx
+++ b/Commodities.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4451A40B-27FE-4E0C-9C86-8E9C281FF66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E81B8E-10E8-4D7C-AB0C-859E19F80C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="10970" windowHeight="13820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="1980" windowWidth="13950" windowHeight="14670" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
     <sheet name="Corn" sheetId="2" r:id="rId2"/>
     <sheet name="Soybeans" sheetId="3" r:id="rId3"/>
+    <sheet name="Wheat" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,20 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
   <si>
     <t>Corn</t>
   </si>
   <si>
-    <t>Production hiccups in SAM</t>
-  </si>
-  <si>
-    <t>Fun traders bullish</t>
-  </si>
-  <si>
-    <t>Acres up for 2025, but USDA not pushing it</t>
-  </si>
-  <si>
     <t>Soybeans</t>
   </si>
   <si>
@@ -74,12 +66,6 @@
     <t>Dec25</t>
   </si>
   <si>
-    <t>Mar26</t>
-  </si>
-  <si>
-    <t>May26</t>
-  </si>
-  <si>
     <t>Nov25</t>
   </si>
   <si>
@@ -87,6 +73,18 @@
   </si>
   <si>
     <t>Aug25</t>
+  </si>
+  <si>
+    <t>Wheat</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>scripting</t>
+  </si>
+  <si>
+    <t>source</t>
   </si>
 </sst>
 </file>
@@ -140,13 +138,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -428,43 +425,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C7"/>
+  <dimension ref="B2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C3:C5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C4" t="s">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
-        <v>4</v>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" location="Corn!A1" display="Corn" xr:uid="{444D8CD6-920D-4C30-BA5A-E1FA84F2FB86}"/>
-    <hyperlink ref="B7" location="Soybeans!A1" display="Soybeans" xr:uid="{33DB5011-47AE-46B7-823B-F30264F70A8E}"/>
+    <hyperlink ref="B4" location="Soybeans!A1" display="Soybeans" xr:uid="{33DB5011-47AE-46B7-823B-F30264F70A8E}"/>
+    <hyperlink ref="B6" location="Wheat!A1" display="Wheat" xr:uid="{697EC05A-2B5E-462C-A60D-7D8F24D01643}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -472,163 +460,120 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E165E3B-2812-418A-BA5E-2BD08A1FA388}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="C3" s="2">
+        <v>45714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>479.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>494.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>499.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>467.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>466.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2">
-        <v>45708</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45708</v>
-      </c>
-      <c r="D3" s="2">
-        <v>45713</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>499</v>
-      </c>
-      <c r="D4">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>513</v>
-      </c>
-      <c r="D5">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>517</v>
-      </c>
-      <c r="D6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>482</v>
-      </c>
-      <c r="D7">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>479</v>
-      </c>
-      <c r="D8">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>489</v>
-      </c>
-      <c r="D9">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>496</v>
-      </c>
-      <c r="D10">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
@@ -654,16 +599,11 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{21921B5B-20BF-4CB4-AC20-04AECFB1D8D5}"/>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{5A635EF4-A366-47FB-9E50-DC60B357B866}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -671,149 +611,159 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB6C7BA-262C-4899-BE72-FB33CE199B92}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
-      <c r="B3" s="2">
-        <v>45708</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2">
         <v>45708</v>
       </c>
       <c r="D3" s="2">
         <v>45713</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="E3" s="2">
+        <v>45714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>1029</v>
+      </c>
+      <c r="E5">
+        <v>1026.4000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>1046</v>
+      </c>
+      <c r="E6">
+        <v>1043.4000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>1061</v>
+      </c>
+      <c r="E7">
+        <v>1058.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>1059</v>
+      </c>
+      <c r="E8">
+        <v>1056.5999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="D9">
+        <v>1045</v>
+      </c>
+      <c r="E9">
+        <v>1043.4000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="D10">
+        <v>1048</v>
+      </c>
+      <c r="E10">
+        <v>1046.5999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="D8">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="D11">
         <v>1060</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>1057.4000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
@@ -857,9 +807,6 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -867,4 +814,182 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1668C772-877A-41BC-887B-03AC58502F5D}">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2">
+        <v>45714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>1026.4000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>1043.4000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>1058.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>1056.5999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>1043.4000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>1046.5999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>1057.4000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{8D3B6E67-69D2-4CE9-997A-E9724B627B2A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Commodities.xlsx
+++ b/Commodities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E81B8E-10E8-4D7C-AB0C-859E19F80C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76EAF99-ABA2-47CE-BF1E-DEDF36BB4C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="1980" windowWidth="13950" windowHeight="14670" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="21">
   <si>
     <t>Corn</t>
   </si>
@@ -78,19 +78,28 @@
     <t>Wheat</t>
   </si>
   <si>
-    <t>Close</t>
-  </si>
-  <si>
     <t>scripting</t>
   </si>
   <si>
     <t>source</t>
+  </si>
+  <si>
+    <t>Contract</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Chicago Wheat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -138,12 +147,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -460,10 +470,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E165E3B-2812-418A-BA5E-2BD08A1FA388}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -476,93 +486,98 @@
         <v>2</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="C3" s="2">
+      <c r="C4" s="2">
         <v>45714</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>479.4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>494.4</v>
+        <v>479.4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>499.4</v>
+        <v>494.4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>467.2</v>
+        <v>499.4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>466.2</v>
+        <v>467.2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>466.2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
@@ -599,11 +614,14 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{21921B5B-20BF-4CB4-AC20-04AECFB1D8D5}"/>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{5A635EF4-A366-47FB-9E50-DC60B357B866}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{5A635EF4-A366-47FB-9E50-DC60B357B866}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -611,217 +629,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB6C7BA-262C-4899-BE72-FB33CE199B92}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="5" width="9.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2">
-        <v>45708</v>
-      </c>
-      <c r="D3" s="2">
-        <v>45713</v>
-      </c>
-      <c r="E3" s="2">
-        <v>45714</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>1029</v>
-      </c>
-      <c r="E5">
-        <v>1026.4000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>1046</v>
-      </c>
-      <c r="E6">
-        <v>1043.4000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>1061</v>
-      </c>
-      <c r="E7">
-        <v>1058.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>1059</v>
-      </c>
-      <c r="E8">
-        <v>1056.5999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>1045</v>
-      </c>
-      <c r="E9">
-        <v>1043.4000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>1048</v>
-      </c>
-      <c r="E10">
-        <v>1046.5999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11">
-        <v>1060</v>
-      </c>
-      <c r="E11">
-        <v>1057.4000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="3"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{DBA19642-D105-4912-A7D1-F8DE5F2B29CB}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1668C772-877A-41BC-887B-03AC58502F5D}">
-  <dimension ref="A1:C30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -833,18 +644,31 @@
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2">
-        <v>45714</v>
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45714</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -853,7 +677,7 @@
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>1026.4000000000001</v>
       </c>
     </row>
@@ -864,8 +688,8 @@
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
-        <v>1043.4000000000001</v>
+      <c r="C6" s="5">
+        <v>1043</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -875,8 +699,8 @@
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
-        <v>1058.2</v>
+      <c r="C7" s="5">
+        <v>1057.4000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -886,8 +710,8 @@
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8">
-        <v>1056.5999999999999</v>
+      <c r="C8" s="5">
+        <v>1056.2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -897,8 +721,8 @@
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
-        <v>1043.4000000000001</v>
+      <c r="C9" s="5">
+        <v>1043</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -908,8 +732,8 @@
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10">
-        <v>1046.5999999999999</v>
+      <c r="C10" s="5">
+        <v>1046.4000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -919,8 +743,8 @@
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11">
-        <v>1057.4000000000001</v>
+      <c r="C11" s="5">
+        <v>1057</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -988,7 +812,181 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{8D3B6E67-69D2-4CE9-997A-E9724B627B2A}"/>
+    <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{71ACD750-B708-43D8-ACD2-BF076E4E626B}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{96A68101-374D-4EB5-9BD1-943FA1A3B001}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1668C772-877A-41BC-887B-03AC58502F5D}">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>576.20000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5">
+        <v>590.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5">
+        <v>605.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5">
+        <v>624.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{E24D3D7F-5983-4ED7-B709-0B9DC7581B46}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{28DD80BB-22CD-403E-B5FC-3CC55388D54E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Commodities.xlsx
+++ b/Commodities.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76EAF99-ABA2-47CE-BF1E-DEDF36BB4C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A1BDB2-1492-4B05-B05E-E513EED6F193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="1980" windowWidth="13950" windowHeight="14670" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="1980" windowWidth="19290" windowHeight="14670" tabRatio="750" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
     <sheet name="Corn" sheetId="2" r:id="rId2"/>
     <sheet name="Soybeans" sheetId="3" r:id="rId3"/>
     <sheet name="Wheat" sheetId="4" r:id="rId4"/>
+    <sheet name="LiveCattle" sheetId="5" r:id="rId5"/>
+    <sheet name="FeederCattle" sheetId="6" r:id="rId6"/>
+    <sheet name="LeanHogs" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="26">
   <si>
     <t>Corn</t>
   </si>
@@ -91,6 +94,21 @@
   </si>
   <si>
     <t>Chicago Wheat</t>
+  </si>
+  <si>
+    <t>Live Cattle</t>
+  </si>
+  <si>
+    <t>Feeder Cattle</t>
+  </si>
+  <si>
+    <t>Lean Hogs</t>
+  </si>
+  <si>
+    <t>Feb25</t>
+  </si>
+  <si>
+    <t>Apr25</t>
   </si>
 </sst>
 </file>
@@ -147,13 +165,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -435,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:B6"/>
+  <dimension ref="B2:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -458,11 +477,29 @@
         <v>15</v>
       </c>
     </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" location="Corn!A1" display="Corn" xr:uid="{444D8CD6-920D-4C30-BA5A-E1FA84F2FB86}"/>
     <hyperlink ref="B4" location="Soybeans!A1" display="Soybeans" xr:uid="{33DB5011-47AE-46B7-823B-F30264F70A8E}"/>
     <hyperlink ref="B6" location="Wheat!A1" display="Wheat" xr:uid="{697EC05A-2B5E-462C-A60D-7D8F24D01643}"/>
+    <hyperlink ref="B8" location="LiveCattle!A1" display="Live Cattle" xr:uid="{F0C589B0-58D8-458F-A30D-A5FDEE576F2B}"/>
+    <hyperlink ref="B10" location="FeederCattle!A1" display="Feeder Cattle" xr:uid="{5EA7C9CD-C7E4-4686-8824-BE8B1A87DA4E}"/>
+    <hyperlink ref="B12" location="LeanHogs!A1" display="Lean Hogs" xr:uid="{893F56CA-2E6B-47C1-87DE-1E04DCBA0F27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -473,7 +510,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -632,7 +669,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A4" sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -812,8 +849,8 @@
     </row>
   </sheetData>
   <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{96A68101-374D-4EB5-9BD1-943FA1A3B001}"/>
     <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{71ACD750-B708-43D8-ACD2-BF076E4E626B}"/>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{96A68101-374D-4EB5-9BD1-943FA1A3B001}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -823,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1668C772-877A-41BC-887B-03AC58502F5D}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -990,4 +1027,214 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7958B76A-2495-452F-96DC-58EBD06713FE}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{4009F218-98B0-4AEB-8728-F6EFEB4E062C}"/>
+    <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{43B3B04D-CCB7-4852-A417-644C953546EB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E015D21C-8AED-41F6-BE2B-239214F2A4CA}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{FF63EA5F-7199-449B-A4AA-4AC308B5E2D3}"/>
+    <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{E561D8C2-0971-42AC-826F-809055BBA8D0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FFED04-0FFF-4987-A6D8-9587B777ED77}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{E214B918-A1C1-48E5-9D14-379AC7F15792}"/>
+    <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{641A5D60-116C-4DA8-B612-F199AE0B1CAD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Commodities.xlsx
+++ b/Commodities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A1BDB2-1492-4B05-B05E-E513EED6F193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E15020-F467-4F56-BD24-9F892FD59D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="1980" windowWidth="19290" windowHeight="14670" tabRatio="750" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8090" yWindow="2900" windowWidth="11810" windowHeight="15370" tabRatio="750" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="27">
   <si>
     <t>Corn</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Apr25</t>
+  </si>
+  <si>
+    <t>Volume</t>
   </si>
 </sst>
 </file>
@@ -165,7 +168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -173,6 +176,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -507,129 +511,318 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E165E3B-2812-418A-BA5E-2BD08A1FA388}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
+        <v>45708</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45709</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45712</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45713</v>
+      </c>
+      <c r="G4" s="2">
         <v>45714</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H4" s="2">
+        <v>45715</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
-        <v>479.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C5" s="5">
+        <v>497.4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>490.4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>482.6</v>
+      </c>
+      <c r="F5" s="5">
+        <v>480.4</v>
+      </c>
+      <c r="G5" s="5">
+        <v>479</v>
+      </c>
+      <c r="H5" s="5">
+        <v>466.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7">
+        <v>134052</v>
+      </c>
+      <c r="D6" s="7">
+        <v>168137</v>
+      </c>
+      <c r="E6" s="7">
+        <v>141085</v>
+      </c>
+      <c r="F6" s="7">
+        <v>92742</v>
+      </c>
+      <c r="G6" s="7">
+        <v>92823</v>
+      </c>
+      <c r="H6" s="7">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
-        <v>494.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="5">
+        <v>511.6</v>
+      </c>
+      <c r="D7" s="5">
+        <v>504.6</v>
+      </c>
+      <c r="E7" s="5">
+        <v>497</v>
+      </c>
+      <c r="F7" s="5">
+        <v>494.6</v>
+      </c>
+      <c r="G7" s="5">
+        <v>494</v>
+      </c>
+      <c r="H7" s="5">
+        <v>481.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7">
+        <v>157850</v>
+      </c>
+      <c r="D8" s="7">
+        <v>225405</v>
+      </c>
+      <c r="E8" s="7">
+        <v>264420</v>
+      </c>
+      <c r="F8" s="7">
+        <v>223095</v>
+      </c>
+      <c r="G8" s="7">
+        <v>213174</v>
+      </c>
+      <c r="H8" s="7">
         <v>9</v>
       </c>
-      <c r="C7">
-        <v>499.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5">
+        <v>515.6</v>
+      </c>
+      <c r="D9" s="5">
+        <v>509.4</v>
+      </c>
+      <c r="E9" s="5">
+        <v>502</v>
+      </c>
+      <c r="F9" s="5">
+        <v>500</v>
+      </c>
+      <c r="G9" s="5">
+        <v>499.2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>487.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>59286</v>
+      </c>
+      <c r="D10" s="7">
+        <v>97811</v>
+      </c>
+      <c r="E10" s="7">
+        <v>102413</v>
+      </c>
+      <c r="F10" s="7">
+        <v>94372</v>
+      </c>
+      <c r="G10" s="7">
+        <v>82418</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8">
-        <v>467.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="C11" s="5">
+        <v>481.2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>477.2</v>
+      </c>
+      <c r="E11" s="5">
+        <v>472.2</v>
+      </c>
+      <c r="F11" s="5">
+        <v>471.2</v>
+      </c>
+      <c r="G11" s="5">
+        <v>467.6</v>
+      </c>
+      <c r="H11" s="5">
+        <v>458.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7">
+        <v>28364</v>
+      </c>
+      <c r="D12" s="7">
+        <v>26520</v>
+      </c>
+      <c r="E12" s="7">
+        <v>37667</v>
+      </c>
+      <c r="F12" s="7">
+        <v>37996</v>
+      </c>
+      <c r="G12" s="7">
+        <v>34367</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9">
-        <v>466.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="C13" s="5">
+        <v>478.6</v>
+      </c>
+      <c r="D13" s="5">
+        <v>475</v>
+      </c>
+      <c r="E13" s="5">
+        <v>470.2</v>
+      </c>
+      <c r="F13" s="5">
+        <v>470</v>
+      </c>
+      <c r="G13" s="5">
+        <v>466.6</v>
+      </c>
+      <c r="H13" s="5">
+        <v>461.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7">
+        <v>32475</v>
+      </c>
+      <c r="D14" s="7">
+        <v>29284</v>
+      </c>
+      <c r="E14" s="7">
+        <v>46962</v>
+      </c>
+      <c r="F14" s="7">
+        <v>55592</v>
+      </c>
+      <c r="G14" s="7">
+        <v>44190</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
@@ -654,6 +847,21 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -668,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB6C7BA-262C-4899-BE72-FB33CE199B92}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1033,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7958B76A-2495-452F-96DC-58EBD06713FE}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Commodities.xlsx
+++ b/Commodities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E15020-F467-4F56-BD24-9F892FD59D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5DADE9-AF09-452F-B316-D56E81D7AD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8090" yWindow="2900" windowWidth="11810" windowHeight="15370" tabRatio="750" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1160" yWindow="3870" windowWidth="14570" windowHeight="15370" tabRatio="750" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -511,29 +511,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E165E3B-2812-418A-BA5E-2BD08A1FA388}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -541,7 +541,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>18</v>
@@ -564,8 +564,11 @@
       <c r="H4" s="2">
         <v>45715</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I4" s="2">
+        <v>45716</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -588,10 +591,13 @@
         <v>479</v>
       </c>
       <c r="H5" s="5">
-        <v>466.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>464</v>
+      </c>
+      <c r="I5" s="5">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -612,10 +618,13 @@
         <v>92823</v>
       </c>
       <c r="H6" s="7">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>81712</v>
+      </c>
+      <c r="I6" s="7">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -638,10 +647,13 @@
         <v>494</v>
       </c>
       <c r="H7" s="5">
-        <v>481.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>481</v>
+      </c>
+      <c r="I7" s="5">
+        <v>469.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -662,10 +674,13 @@
         <v>213174</v>
       </c>
       <c r="H8" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>307870</v>
+      </c>
+      <c r="I8" s="7">
+        <v>266569</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -688,10 +703,13 @@
         <v>499.2</v>
       </c>
       <c r="H9" s="5">
-        <v>487.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>486.4</v>
+      </c>
+      <c r="I9" s="5">
+        <v>475.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -711,9 +729,14 @@
       <c r="G10" s="7">
         <v>82418</v>
       </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H10" s="7">
+        <v>121383</v>
+      </c>
+      <c r="I10" s="7">
+        <v>114721</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -736,10 +759,13 @@
         <v>467.6</v>
       </c>
       <c r="H11" s="5">
-        <v>458.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+        <v>458.4</v>
+      </c>
+      <c r="I11" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -759,9 +785,14 @@
       <c r="G12" s="7">
         <v>34367</v>
       </c>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H12" s="7">
+        <v>51487</v>
+      </c>
+      <c r="I12" s="7">
+        <v>47918</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -784,10 +815,13 @@
         <v>466.6</v>
       </c>
       <c r="H13" s="5">
-        <v>461.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+        <v>461.2</v>
+      </c>
+      <c r="I13" s="5">
+        <v>454.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -807,14 +841,19 @@
       <c r="G14" s="7">
         <v>44190</v>
       </c>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H14" s="7">
+        <v>72682</v>
+      </c>
+      <c r="I14" s="7">
+        <v>69784</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
@@ -876,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB6C7BA-262C-4899-BE72-FB33CE199B92}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Commodities.xlsx
+++ b/Commodities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5DADE9-AF09-452F-B316-D56E81D7AD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31969E3-6994-4D29-9E24-81EEB1205640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="3870" windowWidth="14570" windowHeight="15370" tabRatio="750" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1160" yWindow="3870" windowWidth="14570" windowHeight="15370" tabRatio="750" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="27">
   <si>
     <t>Corn</t>
   </si>
@@ -511,10 +511,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E165E3B-2812-418A-BA5E-2BD08A1FA388}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -522,18 +522,18 @@
     <col min="3" max="9" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -541,7 +541,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>18</v>
@@ -567,8 +567,11 @@
       <c r="I4" s="2">
         <v>45716</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J4" s="2">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -596,8 +599,11 @@
       <c r="I5" s="5">
         <v>453</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J5" s="5">
+        <v>440.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -623,8 +629,11 @@
       <c r="I6" s="7">
         <v>7600</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J6" s="7">
+        <v>4482</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -652,8 +661,11 @@
       <c r="I7" s="5">
         <v>469.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J7" s="5">
+        <v>456.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -679,8 +691,11 @@
       <c r="I8" s="7">
         <v>266569</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J8" s="7">
+        <v>834087</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -708,8 +723,11 @@
       <c r="I9" s="5">
         <v>475.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J9" s="5">
+        <v>464.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -735,8 +753,11 @@
       <c r="I10" s="7">
         <v>114721</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J10" s="7">
+        <v>406646</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -764,8 +785,11 @@
       <c r="I11" s="5">
         <v>450</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J11" s="5">
+        <v>445.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -791,8 +815,11 @@
       <c r="I12" s="7">
         <v>47918</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J12" s="7">
+        <v>255340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -820,8 +847,11 @@
       <c r="I13" s="5">
         <v>454.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J13" s="5">
+        <v>451.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -847,13 +877,16 @@
       <c r="I14" s="7">
         <v>69784</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J14" s="7">
+        <v>326733</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
@@ -913,48 +946,62 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB6C7BA-262C-4899-BE72-FB33CE199B92}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
+        <v>45713</v>
+      </c>
+      <c r="D4" s="2">
         <v>45714</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E4" s="2">
+        <v>45715</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45716</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -962,137 +1009,368 @@
         <v>7</v>
       </c>
       <c r="C5" s="5">
-        <v>1026.4000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1031.2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1024.4000000000001</v>
+      </c>
+      <c r="E5">
+        <v>1024.5999999999999</v>
+      </c>
+      <c r="F5">
+        <v>1011.4</v>
+      </c>
+      <c r="G5" s="5">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="7">
+        <v>103372</v>
+      </c>
+      <c r="D6" s="7">
+        <v>67515</v>
+      </c>
+      <c r="E6" s="7">
+        <v>35088</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1753</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="5">
-        <v>1057.4000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1049.2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1041.4000000000001</v>
+      </c>
+      <c r="E7">
+        <v>1038.2</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1025</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1010.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1056.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="7">
+        <v>171329</v>
+      </c>
+      <c r="D8" s="7">
+        <v>134182</v>
+      </c>
+      <c r="E8" s="7">
+        <v>142004</v>
+      </c>
+      <c r="F8" s="7">
+        <v>118780</v>
+      </c>
+      <c r="G8" s="7">
+        <v>137904</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="5">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1063.2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1056.2</v>
+      </c>
+      <c r="E9">
+        <v>1052.4000000000001</v>
+      </c>
+      <c r="F9">
+        <v>1039.4000000000001</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1046.4000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="7">
+        <v>52539</v>
+      </c>
+      <c r="D10" s="7">
+        <v>37757</v>
+      </c>
+      <c r="E10" s="7">
+        <v>50392</v>
+      </c>
+      <c r="F10" s="7">
+        <v>53289</v>
+      </c>
+      <c r="G10" s="7">
+        <v>64665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1061.5999999999999</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1055.2</v>
+      </c>
+      <c r="E11">
+        <v>1051.2</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1037.5999999999999</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="7">
+        <v>5317</v>
+      </c>
+      <c r="D12" s="7">
+        <v>5845</v>
+      </c>
+      <c r="E12" s="7">
+        <v>8154</v>
+      </c>
+      <c r="F12" s="7">
+        <v>8351</v>
+      </c>
+      <c r="G12" s="7">
+        <v>10749</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1048</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1042.2</v>
+      </c>
+      <c r="E13">
+        <v>1038.4000000000001</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1025.2</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="7">
+        <v>3773</v>
+      </c>
+      <c r="D14" s="7">
+        <v>3617</v>
+      </c>
+      <c r="E14" s="7">
+        <v>5761</v>
+      </c>
+      <c r="F14" s="7">
+        <v>3954</v>
+      </c>
+      <c r="G14" s="7">
+        <v>8948</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1051</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1045.2</v>
+      </c>
+      <c r="E15">
+        <v>1042.2</v>
+      </c>
+      <c r="F15">
+        <v>1028.5999999999999</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1017.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="7">
+        <v>24802</v>
+      </c>
+      <c r="D16" s="7">
+        <v>16612</v>
+      </c>
+      <c r="E16" s="7">
+        <v>26331</v>
+      </c>
+      <c r="F16" s="7">
+        <v>18469</v>
+      </c>
+      <c r="G16" s="7">
+        <v>33152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="5">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="C17" s="5">
+        <v>1061.2</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1056.2</v>
+      </c>
+      <c r="E17">
+        <v>1053.2</v>
+      </c>
+      <c r="F17">
+        <v>1039.5999999999999</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1029.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="7">
+        <v>2342</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2267</v>
+      </c>
+      <c r="E18" s="7">
+        <v>2947</v>
+      </c>
+      <c r="F18" s="7">
+        <v>2756</v>
+      </c>
+      <c r="G18" s="7">
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Commodities.xlsx
+++ b/Commodities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31969E3-6994-4D29-9E24-81EEB1205640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27D2D7F-7AF1-48C1-BACE-451645D911AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="3870" windowWidth="14570" windowHeight="15370" tabRatio="750" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3920" yWindow="4230" windowWidth="12530" windowHeight="14140" tabRatio="750" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="27">
   <si>
     <t>Corn</t>
   </si>
@@ -511,10 +511,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E165E3B-2812-418A-BA5E-2BD08A1FA388}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -522,26 +522,23 @@
     <col min="3" max="9" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>18</v>
@@ -570,8 +567,14 @@
       <c r="J4" s="2">
         <v>45719</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4" s="2">
+        <v>45720</v>
+      </c>
+      <c r="L4" s="2">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -602,8 +605,14 @@
       <c r="J5" s="5">
         <v>440.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5" s="5">
+        <v>437</v>
+      </c>
+      <c r="L5" s="5">
+        <v>441.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -632,8 +641,14 @@
       <c r="J6" s="7">
         <v>4482</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6" s="7">
+        <v>2253</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -664,8 +679,14 @@
       <c r="J7" s="5">
         <v>456.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K7" s="5">
+        <v>452.2</v>
+      </c>
+      <c r="L7" s="5">
+        <v>456.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -694,8 +715,14 @@
       <c r="J8" s="7">
         <v>834087</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K8" s="7">
+        <v>364271</v>
+      </c>
+      <c r="L8" s="7">
+        <v>253046</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -726,8 +753,14 @@
       <c r="J9" s="5">
         <v>464.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9" s="5">
+        <v>460</v>
+      </c>
+      <c r="L9" s="5">
+        <v>463.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -756,8 +789,14 @@
       <c r="J10" s="7">
         <v>406646</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K10" s="7">
+        <v>224253</v>
+      </c>
+      <c r="L10" s="7">
+        <v>132463</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -788,8 +827,14 @@
       <c r="J11" s="5">
         <v>445.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K11" s="5">
+        <v>441.4</v>
+      </c>
+      <c r="L11" s="5">
+        <v>441.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -818,8 +863,14 @@
       <c r="J12" s="7">
         <v>255340</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K12" s="7">
+        <v>65555</v>
+      </c>
+      <c r="L12" s="7">
+        <v>46691</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -850,8 +901,14 @@
       <c r="J13" s="5">
         <v>451.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K13" s="5">
+        <v>447</v>
+      </c>
+      <c r="L13" s="5">
+        <v>447.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -880,13 +937,19 @@
       <c r="J14" s="7">
         <v>326733</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K14" s="7">
+        <v>126983</v>
+      </c>
+      <c r="L14" s="7">
+        <v>80624</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
@@ -946,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB6C7BA-262C-4899-BE72-FB33CE199B92}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -958,13 +1021,13 @@
     <col min="7" max="7" width="8.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -972,7 +1035,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -980,7 +1043,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>18</v>
@@ -1000,8 +1063,14 @@
       <c r="G4" s="2">
         <v>45719</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H4" s="2">
+        <v>45720</v>
+      </c>
+      <c r="I4" s="2">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1023,8 +1092,14 @@
       <c r="G5" s="5">
         <v>997</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H5" s="5">
+        <v>985.6</v>
+      </c>
+      <c r="I5" s="5">
+        <v>998.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1044,8 +1119,14 @@
       <c r="G6" s="7">
         <v>1756</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6" s="7">
+        <v>731</v>
+      </c>
+      <c r="I6" s="7">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -1067,8 +1148,14 @@
       <c r="G7" s="5">
         <v>1010.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H7" s="5">
+        <v>1001.6</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1012.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -1088,8 +1175,14 @@
       <c r="G8" s="7">
         <v>137904</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H8" s="7">
+        <v>197706</v>
+      </c>
+      <c r="I8" s="7">
+        <v>140272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1111,8 +1204,14 @@
       <c r="G9" s="5">
         <v>1025</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H9" s="5">
+        <v>1016.2</v>
+      </c>
+      <c r="I9">
+        <v>1025.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -1132,8 +1231,14 @@
       <c r="G10" s="7">
         <v>64665</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H10" s="7">
+        <v>85658</v>
+      </c>
+      <c r="I10" s="7">
+        <v>71776</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1155,8 +1260,14 @@
       <c r="G11" s="5">
         <v>1024</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H11" s="5">
+        <v>1013.4</v>
+      </c>
+      <c r="I11">
+        <v>1021.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -1176,8 +1287,14 @@
       <c r="G12" s="7">
         <v>10749</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H12" s="7">
+        <v>12905</v>
+      </c>
+      <c r="I12" s="7">
+        <v>14219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1199,8 +1316,14 @@
       <c r="G13" s="5">
         <v>1013</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H13" s="5">
+        <v>1001.2</v>
+      </c>
+      <c r="I13">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -1220,8 +1343,14 @@
       <c r="G14" s="7">
         <v>8948</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H14" s="7">
+        <v>11029</v>
+      </c>
+      <c r="I14" s="7">
+        <v>10573</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1243,8 +1372,14 @@
       <c r="G15" s="5">
         <v>1017.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H15" s="5">
+        <v>1004.6</v>
+      </c>
+      <c r="I15">
+        <v>1010.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
@@ -1264,8 +1399,14 @@
       <c r="G16" s="7">
         <v>33152</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H16" s="7">
+        <v>45459</v>
+      </c>
+      <c r="I16" s="7">
+        <v>41336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1287,8 +1428,14 @@
       <c r="G17" s="5">
         <v>1029.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H17" s="5">
+        <v>1016.6</v>
+      </c>
+      <c r="I17">
+        <v>1021.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
@@ -1308,53 +1455,59 @@
       <c r="G18" s="7">
         <v>4150</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H18" s="7">
+        <v>7874</v>
+      </c>
+      <c r="I18" s="7">
+        <v>5197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">

--- a/Commodities.xlsx
+++ b/Commodities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27D2D7F-7AF1-48C1-BACE-451645D911AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC706367-1551-4B79-8DEA-54F7220A3E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="4230" windowWidth="12530" windowHeight="14140" tabRatio="750" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1420" yWindow="2110" windowWidth="16300" windowHeight="17520" tabRatio="750" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -511,10 +511,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E165E3B-2812-418A-BA5E-2BD08A1FA388}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -522,23 +522,23 @@
     <col min="3" max="9" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>18</v>
@@ -573,8 +573,14 @@
       <c r="L4" s="2">
         <v>45721</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M4" s="2">
+        <v>45722</v>
+      </c>
+      <c r="N4" s="2">
+        <v>45723</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -611,8 +617,14 @@
       <c r="L5" s="5">
         <v>441.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M5" s="5">
+        <v>449.2</v>
+      </c>
+      <c r="N5" s="5">
+        <v>455.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -647,8 +659,14 @@
       <c r="L6" s="7">
         <v>1169</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M6" s="7">
+        <v>668</v>
+      </c>
+      <c r="N6" s="7">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -685,8 +703,14 @@
       <c r="L7" s="5">
         <v>456.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M7" s="5">
+        <v>463.6</v>
+      </c>
+      <c r="N7" s="5">
+        <v>469.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -721,8 +745,14 @@
       <c r="L8" s="7">
         <v>253046</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M8" s="7">
+        <v>295941</v>
+      </c>
+      <c r="N8" s="7">
+        <v>170217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -759,8 +789,14 @@
       <c r="L9" s="5">
         <v>463.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M9" s="5">
+        <v>470.2</v>
+      </c>
+      <c r="N9" s="5">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -795,8 +831,14 @@
       <c r="L10" s="7">
         <v>132463</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M10" s="7">
+        <v>163159</v>
+      </c>
+      <c r="N10" s="7">
+        <v>101807</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -833,8 +875,14 @@
       <c r="L11" s="5">
         <v>441.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M11" s="5">
+        <v>445</v>
+      </c>
+      <c r="N11" s="5">
+        <v>450.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -869,8 +917,14 @@
       <c r="L12" s="7">
         <v>46691</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M12" s="7">
+        <v>53233</v>
+      </c>
+      <c r="N12" s="7">
+        <v>43506</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -907,8 +961,14 @@
       <c r="L13" s="5">
         <v>447.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M13" s="5">
+        <v>450.2</v>
+      </c>
+      <c r="N13" s="5">
+        <v>454.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -943,13 +1003,19 @@
       <c r="L14" s="7">
         <v>80624</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M14" s="7">
+        <v>90454</v>
+      </c>
+      <c r="N14" s="7">
+        <v>60004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
@@ -1009,10 +1075,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB6C7BA-262C-4899-BE72-FB33CE199B92}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1021,13 +1087,13 @@
     <col min="7" max="7" width="8.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1035,7 +1101,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1043,7 +1109,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>18</v>
@@ -1069,8 +1135,14 @@
       <c r="I4" s="2">
         <v>45721</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J4" s="2">
+        <v>45722</v>
+      </c>
+      <c r="K4" s="2">
+        <v>45723</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1098,8 +1170,14 @@
       <c r="I5" s="5">
         <v>998.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J5" s="5">
+        <v>1014.6</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1125,8 +1203,14 @@
       <c r="I6" s="7">
         <v>162</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J6" s="7">
+        <v>294</v>
+      </c>
+      <c r="K6" s="7">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -1154,8 +1238,14 @@
       <c r="I7" s="5">
         <v>1012.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J7" s="5">
+        <v>1028.2</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1025.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -1181,8 +1271,14 @@
       <c r="I8" s="7">
         <v>140272</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J8" s="7">
+        <v>175854</v>
+      </c>
+      <c r="K8" s="7">
+        <v>110547</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1210,8 +1306,14 @@
       <c r="I9">
         <v>1025.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J9">
+        <v>1040.4000000000001</v>
+      </c>
+      <c r="K9">
+        <v>1038.5999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -1237,8 +1339,14 @@
       <c r="I10" s="7">
         <v>71776</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J10" s="7">
+        <v>93047</v>
+      </c>
+      <c r="K10" s="7">
+        <v>69393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1266,8 +1374,14 @@
       <c r="I11">
         <v>1021.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J11" s="5">
+        <v>1035</v>
+      </c>
+      <c r="K11">
+        <v>1035.5999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -1293,8 +1407,14 @@
       <c r="I12" s="7">
         <v>14219</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J12" s="7">
+        <v>11573</v>
+      </c>
+      <c r="K12" s="7">
+        <v>7611</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1322,8 +1442,14 @@
       <c r="I13">
         <v>1007</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J13" s="5">
+        <v>1019</v>
+      </c>
+      <c r="K13">
+        <v>1021.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -1349,8 +1475,14 @@
       <c r="I14" s="7">
         <v>10573</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J14" s="7">
+        <v>6974</v>
+      </c>
+      <c r="K14" s="7">
+        <v>5955</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1378,8 +1510,14 @@
       <c r="I15">
         <v>1010.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J15">
+        <v>1021.4</v>
+      </c>
+      <c r="K15">
+        <v>1025.5999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
@@ -1405,8 +1543,14 @@
       <c r="I16" s="7">
         <v>41336</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J16" s="7">
+        <v>38514</v>
+      </c>
+      <c r="K16" s="7">
+        <v>32132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1434,8 +1578,14 @@
       <c r="I17">
         <v>1021.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J17">
+        <v>1032.4000000000001</v>
+      </c>
+      <c r="K17">
+        <v>1037.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
@@ -1461,53 +1611,59 @@
       <c r="I18" s="7">
         <v>5197</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J18" s="7">
+        <v>5655</v>
+      </c>
+      <c r="K18" s="7">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">

--- a/Commodities.xlsx
+++ b/Commodities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC706367-1551-4B79-8DEA-54F7220A3E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7D817C-3BC1-402E-84BE-8FDAAC4ACC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="2110" windowWidth="16300" windowHeight="17520" tabRatio="750" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-50" yWindow="2390" windowWidth="16300" windowHeight="17520" tabRatio="750" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -511,34 +511,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E165E3B-2812-418A-BA5E-2BD08A1FA388}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="9" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>18</v>
@@ -579,8 +580,11 @@
       <c r="N4" s="2">
         <v>45723</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O4" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -623,8 +627,11 @@
       <c r="N5" s="5">
         <v>455.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O5" s="5">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -666,7 +673,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -709,8 +716,11 @@
       <c r="N7" s="5">
         <v>469.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O7" s="5">
+        <v>471.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -752,7 +762,7 @@
         <v>170217</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -795,8 +805,11 @@
       <c r="N9" s="5">
         <v>479</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O9" s="5">
+        <v>477.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -838,7 +851,7 @@
         <v>101807</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -881,8 +894,11 @@
       <c r="N11" s="5">
         <v>450.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O11" s="5">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -924,7 +940,7 @@
         <v>43506</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -967,8 +983,11 @@
       <c r="N13" s="5">
         <v>454.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O13" s="5">
+        <v>454.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -1010,12 +1029,12 @@
         <v>60004</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
@@ -1075,25 +1094,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB6C7BA-262C-4899-BE72-FB33CE199B92}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="6" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1101,7 +1121,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1109,7 +1129,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>18</v>
@@ -1141,8 +1161,11 @@
       <c r="K4" s="2">
         <v>45723</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1176,8 +1199,11 @@
       <c r="K5" s="5">
         <v>1010</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L5" s="5">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1210,7 +1236,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -1244,8 +1270,11 @@
       <c r="K7" s="5">
         <v>1025.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L7" s="5">
+        <v>1011.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -1278,7 +1307,7 @@
         <v>110547</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1312,8 +1341,11 @@
       <c r="K9">
         <v>1038.5999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L9">
+        <v>1025.5999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -1346,7 +1378,7 @@
         <v>69393</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1380,8 +1412,11 @@
       <c r="K11">
         <v>1035.5999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L11" s="5">
+        <v>1023.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -1414,7 +1449,7 @@
         <v>7611</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1448,8 +1483,11 @@
       <c r="K13">
         <v>1021.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L13" s="5">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -1482,7 +1520,7 @@
         <v>5955</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1516,8 +1554,11 @@
       <c r="K15">
         <v>1025.5999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L15">
+        <v>1015.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
@@ -1550,7 +1591,7 @@
         <v>32132</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1584,8 +1625,11 @@
       <c r="K17">
         <v>1037.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L17">
+        <v>1027.4000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
@@ -1618,52 +1662,52 @@
         <v>3367</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">

--- a/Commodities.xlsx
+++ b/Commodities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7D817C-3BC1-402E-84BE-8FDAAC4ACC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7B73E6-EF14-42CA-9C8A-5B81C1878C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50" yWindow="2390" windowWidth="16300" windowHeight="17520" tabRatio="750" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="8180" windowWidth="17750" windowHeight="12350" tabRatio="750" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -511,35 +511,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E165E3B-2812-418A-BA5E-2BD08A1FA388}">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="9" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>18</v>
@@ -583,8 +583,11 @@
       <c r="O4" s="2">
         <v>45726</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P4" s="2">
+        <v>45727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -630,8 +633,11 @@
       <c r="O5" s="5">
         <v>458</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -672,8 +678,11 @@
       <c r="N6" s="7">
         <v>311</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O6" s="7">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -717,10 +726,10 @@
         <v>469.2</v>
       </c>
       <c r="O7" s="5">
-        <v>471.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+        <v>475.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -761,8 +770,11 @@
       <c r="N8" s="7">
         <v>170217</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O8" s="7">
+        <v>141993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -806,10 +818,10 @@
         <v>479</v>
       </c>
       <c r="O9" s="5">
-        <v>477.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+        <v>478.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -850,8 +862,11 @@
       <c r="N10" s="7">
         <v>101807</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O10" s="7">
+        <v>74231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -895,10 +910,10 @@
         <v>450.2</v>
       </c>
       <c r="O11" s="5">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+        <v>451.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -939,8 +954,11 @@
       <c r="N12" s="7">
         <v>43506</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O12" s="7">
+        <v>28663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -984,10 +1002,10 @@
         <v>454.2</v>
       </c>
       <c r="O13" s="5">
-        <v>454.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -1028,13 +1046,16 @@
       <c r="N14" s="7">
         <v>60004</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O14" s="7">
+        <v>39690</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
@@ -1096,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB6C7BA-262C-4899-BE72-FB33CE199B92}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Commodities.xlsx
+++ b/Commodities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7B73E6-EF14-42CA-9C8A-5B81C1878C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45278E4-C711-41E9-9467-30FBC64A0B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="8180" windowWidth="17750" windowHeight="12350" tabRatio="750" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-200" yWindow="3390" windowWidth="18650" windowHeight="15130" tabRatio="750" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E165E3B-2812-418A-BA5E-2BD08A1FA388}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -728,6 +728,9 @@
       <c r="O7" s="5">
         <v>475.2</v>
       </c>
+      <c r="P7" s="5">
+        <v>470.2</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -820,6 +823,9 @@
       <c r="O9" s="5">
         <v>478.6</v>
       </c>
+      <c r="P9" s="5">
+        <v>476.6</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
@@ -912,6 +918,9 @@
       <c r="O11" s="5">
         <v>451.2</v>
       </c>
+      <c r="P11" s="5">
+        <v>449.4</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -1003,6 +1012,9 @@
       </c>
       <c r="O13" s="5">
         <v>455</v>
+      </c>
+      <c r="P13" s="5">
+        <v>453.6</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
@@ -1115,26 +1127,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB6C7BA-262C-4899-BE72-FB33CE199B92}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="6" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1142,7 +1154,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1150,7 +1162,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>18</v>
@@ -1185,8 +1197,11 @@
       <c r="L4" s="2">
         <v>45726</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M4" s="2">
+        <v>45727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1221,10 +1236,13 @@
         <v>1010</v>
       </c>
       <c r="L5" s="5">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1000.4</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1256,8 +1274,11 @@
       <c r="K6" s="7">
         <v>112</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L6" s="7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -1292,10 +1313,13 @@
         <v>1025.2</v>
       </c>
       <c r="L7" s="5">
-        <v>1011.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1013.2</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1010.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -1327,8 +1351,11 @@
       <c r="K8" s="7">
         <v>110547</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L8" s="7">
+        <v>95335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1363,10 +1390,13 @@
         <v>1038.5999999999999</v>
       </c>
       <c r="L9">
-        <v>1025.5999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1027.5999999999999</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1024.5999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -1398,8 +1428,11 @@
       <c r="K10" s="7">
         <v>69393</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L10" s="7">
+        <v>47611</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1434,10 +1467,13 @@
         <v>1035.5999999999999</v>
       </c>
       <c r="L11" s="5">
-        <v>1023.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1025.4000000000001</v>
+      </c>
+      <c r="M11" s="5">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -1469,8 +1505,11 @@
       <c r="K12" s="7">
         <v>7611</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L12" s="7">
+        <v>5337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1505,10 +1544,13 @@
         <v>1021.6</v>
       </c>
       <c r="L13" s="5">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1013</v>
+      </c>
+      <c r="M13" s="5">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -1540,8 +1582,11 @@
       <c r="K14" s="7">
         <v>5955</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L14" s="7">
+        <v>4493</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1576,10 +1621,13 @@
         <v>1025.5999999999999</v>
       </c>
       <c r="L15">
-        <v>1015.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1017.6</v>
+      </c>
+      <c r="M15" s="5">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
@@ -1611,8 +1659,11 @@
       <c r="K16" s="7">
         <v>32132</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L16" s="7">
+        <v>23857</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1647,10 +1698,13 @@
         <v>1037.2</v>
       </c>
       <c r="L17">
-        <v>1027.4000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1029.2</v>
+      </c>
+      <c r="M17" s="5">
+        <v>1027.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
@@ -1682,53 +1736,56 @@
       <c r="K18" s="7">
         <v>3367</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L18" s="7">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">

--- a/Commodities.xlsx
+++ b/Commodities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45278E4-C711-41E9-9467-30FBC64A0B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72508CE0-F43C-42D7-AF5F-13DC118A4A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-200" yWindow="3390" windowWidth="18650" windowHeight="15130" tabRatio="750" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="620" yWindow="5660" windowWidth="20380" windowHeight="15130" tabRatio="750" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -511,35 +511,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E165E3B-2812-418A-BA5E-2BD08A1FA388}">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="9" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>18</v>
@@ -586,8 +586,11 @@
       <c r="P4" s="2">
         <v>45727</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q4" s="2">
+        <v>45728</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -634,10 +637,13 @@
         <v>458</v>
       </c>
       <c r="P5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+        <v>460</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -681,8 +687,11 @@
       <c r="O6" s="7">
         <v>479</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P6" s="7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -729,10 +738,13 @@
         <v>475.2</v>
       </c>
       <c r="P7" s="5">
-        <v>470.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+        <v>469.2</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>460.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -776,8 +788,11 @@
       <c r="O8" s="7">
         <v>141993</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P8" s="7">
+        <v>176183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -824,10 +839,13 @@
         <v>478.6</v>
       </c>
       <c r="P9" s="5">
-        <v>476.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+        <v>476</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -871,8 +889,11 @@
       <c r="O10" s="7">
         <v>74231</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P10" s="7">
+        <v>110156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -919,10 +940,13 @@
         <v>451.2</v>
       </c>
       <c r="P11" s="5">
-        <v>449.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+        <v>448.6</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>442.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -966,8 +990,11 @@
       <c r="O12" s="7">
         <v>28663</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P12" s="7">
+        <v>40204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1016,8 +1043,11 @@
       <c r="P13" s="5">
         <v>453.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q13" s="5">
+        <v>448.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -1061,13 +1091,16 @@
       <c r="O14" s="7">
         <v>39690</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P14" s="7">
+        <v>49182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
@@ -1127,26 +1160,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB6C7BA-262C-4899-BE72-FB33CE199B92}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="6" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1154,7 +1187,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1162,7 +1195,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>18</v>
@@ -1200,8 +1233,11 @@
       <c r="M4" s="2">
         <v>45727</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N4" s="2">
+        <v>45728</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1239,10 +1275,13 @@
         <v>1000.4</v>
       </c>
       <c r="M5" s="5">
+        <v>1001.6</v>
+      </c>
+      <c r="N5" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1277,8 +1316,11 @@
       <c r="L6" s="7">
         <v>89</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M6" s="7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -1316,10 +1358,13 @@
         <v>1013.2</v>
       </c>
       <c r="M7" s="5">
-        <v>1010.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1010</v>
+      </c>
+      <c r="N7" s="5">
+        <v>1002.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -1354,8 +1399,11 @@
       <c r="L8" s="7">
         <v>95335</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M8" s="7">
+        <v>84374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1393,10 +1441,13 @@
         <v>1027.5999999999999</v>
       </c>
       <c r="M9" s="5">
-        <v>1024.5999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1024</v>
+      </c>
+      <c r="N9">
+        <v>1017.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -1431,8 +1482,11 @@
       <c r="L10" s="7">
         <v>47611</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M10" s="7">
+        <v>46299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1470,10 +1524,13 @@
         <v>1025.4000000000001</v>
       </c>
       <c r="M11" s="5">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1022</v>
+      </c>
+      <c r="N11" s="5">
+        <v>1015.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -1508,8 +1565,11 @@
       <c r="L12" s="7">
         <v>5337</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M12" s="7">
+        <v>5012</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1547,10 +1607,13 @@
         <v>1013</v>
       </c>
       <c r="M13" s="5">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1009.6</v>
+      </c>
+      <c r="N13" s="5">
+        <v>1003.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -1585,8 +1648,11 @@
       <c r="L14" s="7">
         <v>4493</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M14" s="7">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1624,10 +1690,13 @@
         <v>1017.6</v>
       </c>
       <c r="M15" s="5">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1014.2</v>
+      </c>
+      <c r="N15">
+        <v>1008.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
@@ -1662,8 +1731,11 @@
       <c r="L16" s="7">
         <v>23857</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M16" s="7">
+        <v>24762</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1701,10 +1773,13 @@
         <v>1029.2</v>
       </c>
       <c r="M17" s="5">
-        <v>1027.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1026.2</v>
+      </c>
+      <c r="N17" s="5">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
@@ -1739,53 +1814,56 @@
       <c r="L18" s="7">
         <v>2521</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M18" s="7">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">

--- a/Commodities.xlsx
+++ b/Commodities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72508CE0-F43C-42D7-AF5F-13DC118A4A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007DEBA1-A0FF-4CEB-9659-11DD12C97CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="5660" windowWidth="20380" windowHeight="15130" tabRatio="750" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="4590" windowWidth="17270" windowHeight="12080" tabRatio="750" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -511,35 +511,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E165E3B-2812-418A-BA5E-2BD08A1FA388}">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="9" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>18</v>
@@ -589,8 +592,11 @@
       <c r="Q4" s="2">
         <v>45728</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R4" s="2">
+        <v>45729</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -640,10 +646,10 @@
         <v>460</v>
       </c>
       <c r="Q5" s="5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+        <v>449.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -690,8 +696,11 @@
       <c r="P6" s="7">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q6" s="7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -741,10 +750,10 @@
         <v>469.2</v>
       </c>
       <c r="Q7" s="5">
-        <v>460.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+        <v>461.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -791,8 +800,11 @@
       <c r="P8" s="7">
         <v>176183</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q8" s="7">
+        <v>214526</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -842,10 +854,10 @@
         <v>476</v>
       </c>
       <c r="Q9" s="5">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+        <v>468.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -892,8 +904,11 @@
       <c r="P10" s="7">
         <v>110156</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q10" s="7">
+        <v>131705</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -943,10 +958,10 @@
         <v>448.6</v>
       </c>
       <c r="Q11" s="5">
-        <v>442.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+        <v>442.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -994,7 +1009,7 @@
         <v>40204</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1047,7 +1062,7 @@
         <v>448.6</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -1095,12 +1110,12 @@
         <v>49182</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
@@ -1155,31 +1170,32 @@
     <hyperlink ref="A2" r:id="rId1" xr:uid="{5A635EF4-A366-47FB-9E50-DC60B357B866}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="54" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB6C7BA-262C-4899-BE72-FB33CE199B92}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="6" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1187,7 +1203,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1195,7 +1211,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>18</v>
@@ -1236,8 +1252,11 @@
       <c r="N4" s="2">
         <v>45728</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O4" s="2">
+        <v>45729</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1278,10 +1297,11 @@
         <v>1001.6</v>
       </c>
       <c r="N5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+        <v>986</v>
+      </c>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1319,8 +1339,11 @@
       <c r="M6" s="7">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N6" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -1361,10 +1384,10 @@
         <v>1010</v>
       </c>
       <c r="N7" s="5">
-        <v>1002.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1001.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -1402,8 +1425,11 @@
       <c r="M8" s="7">
         <v>84374</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N8" s="7">
+        <v>118700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1444,10 +1470,10 @@
         <v>1024</v>
       </c>
       <c r="N9">
-        <v>1017.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -1485,8 +1511,11 @@
       <c r="M10" s="7">
         <v>46299</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N10" s="7">
+        <v>70817</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1527,10 +1556,10 @@
         <v>1022</v>
       </c>
       <c r="N11" s="5">
-        <v>1015.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1015.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -1568,8 +1597,11 @@
       <c r="M12" s="7">
         <v>5012</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N12" s="7">
+        <v>8706</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1610,10 +1642,10 @@
         <v>1009.6</v>
       </c>
       <c r="N13" s="5">
-        <v>1003.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -1651,8 +1683,11 @@
       <c r="M14" s="7">
         <v>3340</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N14" s="7">
+        <v>4469</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1693,10 +1728,10 @@
         <v>1014.2</v>
       </c>
       <c r="N15">
-        <v>1008.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1007.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
@@ -1734,6 +1769,9 @@
       <c r="M16" s="7">
         <v>24762</v>
       </c>
+      <c r="N16" s="7">
+        <v>35369</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
@@ -1776,7 +1814,7 @@
         <v>1026.2</v>
       </c>
       <c r="N17" s="5">
-        <v>1021</v>
+        <v>1020.2</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
@@ -1816,6 +1854,9 @@
       </c>
       <c r="M18" s="7">
         <v>2558</v>
+      </c>
+      <c r="N18" s="7">
+        <v>3422</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">

--- a/Commodities.xlsx
+++ b/Commodities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007DEBA1-A0FF-4CEB-9659-11DD12C97CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214F90AD-D1E0-4267-9C2F-521C674C5996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="4590" windowWidth="17270" windowHeight="12080" tabRatio="750" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="11220" windowWidth="18610" windowHeight="9610" tabRatio="750" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -513,11 +513,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E165E3B-2812-418A-BA5E-2BD08A1FA388}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomRight" activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -648,6 +648,9 @@
       <c r="Q5" s="5">
         <v>449.2</v>
       </c>
+      <c r="R5" s="5">
+        <v>455</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
@@ -699,6 +702,9 @@
       <c r="Q6" s="7">
         <v>233</v>
       </c>
+      <c r="R6" s="7">
+        <v>101</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
@@ -752,6 +758,9 @@
       <c r="Q7" s="5">
         <v>461.4</v>
       </c>
+      <c r="R7" s="5">
+        <v>464</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -803,6 +812,9 @@
       <c r="Q8" s="7">
         <v>214526</v>
       </c>
+      <c r="R8" s="7">
+        <v>172666</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -856,6 +868,9 @@
       <c r="Q9" s="5">
         <v>468.4</v>
       </c>
+      <c r="R9" s="5">
+        <v>471</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
@@ -907,6 +922,9 @@
       <c r="Q10" s="7">
         <v>131705</v>
       </c>
+      <c r="R10" s="7">
+        <v>113484</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -960,6 +978,9 @@
       <c r="Q11" s="5">
         <v>442.6</v>
       </c>
+      <c r="R11" s="5">
+        <v>445.6</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -1008,6 +1029,12 @@
       <c r="P12" s="7">
         <v>40204</v>
       </c>
+      <c r="Q12" s="7">
+        <v>59875</v>
+      </c>
+      <c r="R12" s="7">
+        <v>39540</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
@@ -1061,6 +1088,9 @@
       <c r="Q13" s="5">
         <v>448.6</v>
       </c>
+      <c r="R13" s="5">
+        <v>451.2</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
@@ -1108,6 +1138,12 @@
       </c>
       <c r="P14" s="7">
         <v>49182</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>79810</v>
+      </c>
+      <c r="R14" s="7">
+        <v>52347</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
@@ -1178,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB6C7BA-262C-4899-BE72-FB33CE199B92}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1299,7 +1335,9 @@
       <c r="N5" s="5">
         <v>986</v>
       </c>
-      <c r="O5" s="5"/>
+      <c r="O5" s="5">
+        <v>999.2</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
@@ -1342,6 +1380,9 @@
       <c r="N6" s="7">
         <v>39</v>
       </c>
+      <c r="O6" s="7">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
@@ -1386,6 +1427,9 @@
       <c r="N7" s="5">
         <v>1001.6</v>
       </c>
+      <c r="O7" s="5">
+        <v>1009</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -1428,6 +1472,9 @@
       <c r="N8" s="7">
         <v>118700</v>
       </c>
+      <c r="O8" s="7">
+        <v>103619</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -1472,6 +1519,9 @@
       <c r="N9">
         <v>1017</v>
       </c>
+      <c r="O9">
+        <v>1023.6</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
@@ -1514,6 +1564,9 @@
       <c r="N10" s="7">
         <v>70817</v>
       </c>
+      <c r="O10" s="7">
+        <v>57568</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -1558,6 +1611,9 @@
       <c r="N11" s="5">
         <v>1015.4</v>
       </c>
+      <c r="O11" s="5">
+        <v>1020.2</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -1600,6 +1656,9 @@
       <c r="N12" s="7">
         <v>8706</v>
       </c>
+      <c r="O12" s="7">
+        <v>7145</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
@@ -1644,6 +1703,9 @@
       <c r="N13" s="5">
         <v>1003</v>
       </c>
+      <c r="O13" s="5">
+        <v>1006.4</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
@@ -1686,6 +1748,9 @@
       <c r="N14" s="7">
         <v>4469</v>
       </c>
+      <c r="O14" s="7">
+        <v>4547</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
@@ -1730,6 +1795,9 @@
       <c r="N15">
         <v>1007.6</v>
       </c>
+      <c r="O15">
+        <v>1010.4</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
@@ -1772,8 +1840,11 @@
       <c r="N16" s="7">
         <v>35369</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O16" s="7">
+        <v>27973</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1816,8 +1887,11 @@
       <c r="N17" s="5">
         <v>1020.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O17">
+        <v>1023.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
@@ -1858,53 +1932,56 @@
       <c r="N18" s="7">
         <v>3422</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O18" s="7">
+        <v>3631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">

--- a/Commodities.xlsx
+++ b/Commodities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214F90AD-D1E0-4267-9C2F-521C674C5996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825CEBB8-F9A1-4DF8-A508-D59E34E92B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="11220" windowWidth="18610" windowHeight="9610" tabRatio="750" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="12070" windowWidth="18990" windowHeight="8210" tabRatio="750" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -511,38 +511,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E165E3B-2812-418A-BA5E-2BD08A1FA388}">
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R15" sqref="R15"/>
+      <selection pane="bottomRight" activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="9" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>18</v>
@@ -595,8 +595,11 @@
       <c r="R4" s="2">
         <v>45729</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S4" s="2">
+        <v>45730</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -651,8 +654,11 @@
       <c r="R5" s="5">
         <v>455</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S5" s="5">
+        <v>443.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -705,8 +711,11 @@
       <c r="R6" s="7">
         <v>101</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S6" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -761,8 +770,11 @@
       <c r="R7" s="5">
         <v>464</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S7" s="5">
+        <v>458.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -815,8 +827,11 @@
       <c r="R8" s="7">
         <v>172666</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S8" s="7">
+        <v>225896</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -871,8 +886,11 @@
       <c r="R9" s="5">
         <v>471</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S9" s="5">
+        <v>467.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -925,8 +943,11 @@
       <c r="R10" s="7">
         <v>113484</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S10" s="7">
+        <v>165368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -981,8 +1002,11 @@
       <c r="R11" s="5">
         <v>445.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S11" s="5">
+        <v>444.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -1035,8 +1059,11 @@
       <c r="R12" s="7">
         <v>39540</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S12" s="7">
+        <v>49284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1091,8 +1118,11 @@
       <c r="R13" s="5">
         <v>451.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S13" s="5">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -1145,13 +1175,16 @@
       <c r="R14" s="7">
         <v>52347</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S14" s="7">
+        <v>67129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
@@ -1212,26 +1245,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB6C7BA-262C-4899-BE72-FB33CE199B92}">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="6" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1239,7 +1272,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1247,7 +1280,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>18</v>
@@ -1291,8 +1324,11 @@
       <c r="O4" s="2">
         <v>45729</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P4" s="2">
+        <v>45730</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1338,8 +1374,11 @@
       <c r="O5" s="5">
         <v>999.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P5" s="5">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1383,8 +1422,11 @@
       <c r="O6" s="7">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P6" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -1430,8 +1472,11 @@
       <c r="O7" s="5">
         <v>1009</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P7" s="5">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -1475,8 +1520,11 @@
       <c r="O8" s="7">
         <v>103619</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P8" s="7">
+        <v>89657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1522,8 +1570,11 @@
       <c r="O9">
         <v>1023.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P9" s="5">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1618,11 @@
       <c r="O10" s="7">
         <v>57568</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P10" s="7">
+        <v>46353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1614,8 +1668,11 @@
       <c r="O11" s="5">
         <v>1020.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P11" s="5">
+        <v>1028.4000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -1659,8 +1716,11 @@
       <c r="O12" s="7">
         <v>7145</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P12" s="7">
+        <v>5547</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1706,8 +1766,11 @@
       <c r="O13" s="5">
         <v>1006.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P13" s="5">
+        <v>1014.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -1751,8 +1814,11 @@
       <c r="O14" s="7">
         <v>4547</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P14" s="7">
+        <v>4698</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1798,8 +1864,11 @@
       <c r="O15">
         <v>1010.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P15" s="5">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
@@ -1843,8 +1912,11 @@
       <c r="O16" s="7">
         <v>27973</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P16" s="7">
+        <v>24863</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1890,8 +1962,11 @@
       <c r="O17">
         <v>1023.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P17" s="5">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
@@ -1935,53 +2010,56 @@
       <c r="O18" s="7">
         <v>3631</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P18" s="7">
+        <v>3963</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">

--- a/Commodities.xlsx
+++ b/Commodities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825CEBB8-F9A1-4DF8-A508-D59E34E92B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A0D3AA-BCC9-4B38-913F-FF37E808D20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="12070" windowWidth="18990" windowHeight="8210" tabRatio="750" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="3670" windowWidth="17450" windowHeight="16610" tabRatio="750" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="28">
   <si>
     <t>Corn</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Volume</t>
+  </si>
+  <si>
+    <t>May26</t>
   </si>
 </sst>
 </file>
@@ -511,38 +514,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E165E3B-2812-418A-BA5E-2BD08A1FA388}">
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="S15" sqref="S15"/>
+      <selection pane="bottomRight" activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="9" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>18</v>
@@ -598,8 +601,11 @@
       <c r="S4" s="2">
         <v>45730</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T4" s="2">
+        <v>45733</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -657,8 +663,9 @@
       <c r="S5" s="5">
         <v>443.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -715,7 +722,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -773,8 +780,11 @@
       <c r="S7" s="5">
         <v>458.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T7" s="5">
+        <v>460.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -830,8 +840,11 @@
       <c r="S8" s="7">
         <v>225896</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T8" s="7">
+        <v>165799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -889,8 +902,11 @@
       <c r="S9" s="5">
         <v>467.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T9" s="5">
+        <v>469.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -946,8 +962,11 @@
       <c r="S10" s="7">
         <v>165368</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T10" s="7">
+        <v>92612</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1005,8 +1024,11 @@
       <c r="S11" s="5">
         <v>444.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T11" s="5">
+        <v>448.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -1062,8 +1084,11 @@
       <c r="S12" s="7">
         <v>49284</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T12" s="7">
+        <v>34410</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1121,8 +1146,11 @@
       <c r="S13" s="5">
         <v>451</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T13" s="5">
+        <v>454.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -1178,27 +1206,78 @@
       <c r="S14" s="7">
         <v>67129</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T14" s="7">
+        <v>52225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="5">
+        <v>467.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>5</v>
+        <v>26</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7">
+        <v>589</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
@@ -1232,6 +1311,12 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1247,7 +1332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB6C7BA-262C-4899-BE72-FB33CE199B92}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>

--- a/Commodities.xlsx
+++ b/Commodities.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A0D3AA-BCC9-4B38-913F-FF37E808D20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B775D9B-2837-474A-BCE2-1B4F85D243E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="3670" windowWidth="17450" windowHeight="16610" tabRatio="750" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5810" yWindow="10270" windowWidth="13730" windowHeight="9460" tabRatio="750" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
     <sheet name="Corn" sheetId="2" r:id="rId2"/>
     <sheet name="Soybeans" sheetId="3" r:id="rId3"/>
-    <sheet name="Wheat" sheetId="4" r:id="rId4"/>
-    <sheet name="LiveCattle" sheetId="5" r:id="rId5"/>
-    <sheet name="FeederCattle" sheetId="6" r:id="rId6"/>
-    <sheet name="LeanHogs" sheetId="7" r:id="rId7"/>
+    <sheet name="BoxedBeef" sheetId="8" r:id="rId4"/>
+    <sheet name="Wheat" sheetId="4" r:id="rId5"/>
+    <sheet name="LiveCattle" sheetId="5" r:id="rId6"/>
+    <sheet name="FeederCattle" sheetId="6" r:id="rId7"/>
+    <sheet name="LeanHogs" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="28">
   <si>
     <t>Corn</t>
   </si>
@@ -171,7 +172,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -180,6 +181,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -514,38 +518,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E165E3B-2812-418A-BA5E-2BD08A1FA388}">
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="S12" sqref="S12"/>
+      <selection pane="bottomRight" activeCell="T4" sqref="T4:U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="9" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="21" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>18</v>
@@ -604,8 +608,11 @@
       <c r="T4" s="2">
         <v>45733</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U4" s="2">
+        <v>45734</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -665,7 +672,7 @@
       </c>
       <c r="T5" s="5"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -722,7 +729,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -783,8 +790,11 @@
       <c r="T7" s="5">
         <v>460.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U7" s="5">
+        <v>457.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -843,8 +853,11 @@
       <c r="T8" s="7">
         <v>165799</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U8" s="7">
+        <v>163736</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -905,8 +918,11 @@
       <c r="T9" s="5">
         <v>469.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U9" s="5">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -965,8 +981,11 @@
       <c r="T10" s="7">
         <v>92612</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U10" s="7">
+        <v>91848</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1027,8 +1046,11 @@
       <c r="T11" s="5">
         <v>448.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U11" s="5">
+        <v>446.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -1087,8 +1109,11 @@
       <c r="T12" s="7">
         <v>34410</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U12" s="7">
+        <v>40823</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1149,8 +1174,11 @@
       <c r="T13" s="5">
         <v>454.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U13" s="5">
+        <v>453.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -1209,8 +1237,11 @@
       <c r="T14" s="7">
         <v>52225</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U14" s="7">
+        <v>64523</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1237,8 +1268,11 @@
       <c r="T15" s="5">
         <v>467.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U15">
+        <v>466.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
@@ -1263,6 +1297,9 @@
       <c r="T16" s="7">
         <v>589</v>
       </c>
+      <c r="U16" s="7">
+        <v>4788</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
@@ -1330,26 +1367,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB6C7BA-262C-4899-BE72-FB33CE199B92}">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="6" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="19" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1357,7 +1397,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1365,7 +1405,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>18</v>
@@ -1412,8 +1452,17 @@
       <c r="P4" s="2">
         <v>45730</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q4" s="2">
+        <v>45733</v>
+      </c>
+      <c r="R4" s="2">
+        <v>45734</v>
+      </c>
+      <c r="S4" s="2">
+        <v>45735</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1463,7 +1512,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1511,7 +1560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -1560,8 +1609,14 @@
       <c r="P7" s="5">
         <v>1017</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q7" s="5">
+        <v>1015</v>
+      </c>
+      <c r="R7" s="5">
+        <v>1012.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -1608,8 +1663,14 @@
       <c r="P8" s="7">
         <v>89657</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q8" s="7">
+        <v>69728</v>
+      </c>
+      <c r="R8" s="7">
+        <v>86738</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1658,8 +1719,14 @@
       <c r="P9" s="5">
         <v>1031</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q9">
+        <v>1028.5999999999999</v>
+      </c>
+      <c r="R9" s="5">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,14 @@
       <c r="P10" s="7">
         <v>46353</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q10" s="7">
+        <v>35124</v>
+      </c>
+      <c r="R10" s="7">
+        <v>48134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1756,8 +1829,14 @@
       <c r="P11" s="5">
         <v>1028.4000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q11" s="5">
+        <v>1026</v>
+      </c>
+      <c r="R11" s="5">
+        <v>1023.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -1804,8 +1883,14 @@
       <c r="P12" s="7">
         <v>5547</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q12" s="7">
+        <v>4612</v>
+      </c>
+      <c r="R12" s="7">
+        <v>6118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1854,8 +1939,14 @@
       <c r="P13" s="5">
         <v>1014.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q13" s="5">
+        <v>1013.2</v>
+      </c>
+      <c r="R13" s="5">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -1902,8 +1993,14 @@
       <c r="P14" s="7">
         <v>4698</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q14" s="7">
+        <v>3361</v>
+      </c>
+      <c r="R14" s="7">
+        <v>3963</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1952,8 +2049,14 @@
       <c r="P15" s="5">
         <v>1020</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q15">
+        <v>1018.6</v>
+      </c>
+      <c r="R15">
+        <v>1014.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
@@ -2000,8 +2103,14 @@
       <c r="P16" s="7">
         <v>24863</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q16" s="7">
+        <v>18501</v>
+      </c>
+      <c r="R16" s="7">
+        <v>21704</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -2050,8 +2159,14 @@
       <c r="P17" s="5">
         <v>1032</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q17" s="5">
+        <v>1030.5999999999999</v>
+      </c>
+      <c r="R17" s="5">
+        <v>1027.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
@@ -2098,53 +2213,78 @@
       <c r="P18" s="7">
         <v>3963</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q18" s="7">
+        <v>2024</v>
+      </c>
+      <c r="R18" s="7">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="8">
+        <v>45742</v>
+      </c>
+      <c r="Q19">
+        <v>1032.5999999999999</v>
+      </c>
+      <c r="R19">
+        <v>1031.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q20">
+        <v>986</v>
+      </c>
+      <c r="R20" s="7">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
@@ -2172,6 +2312,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17153CF0-C916-474D-813B-96B52F64C333}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1668C772-877A-41BC-887B-03AC58502F5D}">
   <dimension ref="A1:C28"/>
   <sheetViews>
@@ -2344,7 +2498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7958B76A-2495-452F-96DC-58EBD06713FE}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -2420,7 +2574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E015D21C-8AED-41F6-BE2B-239214F2A4CA}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -2487,7 +2641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FFED04-0FFF-4987-A6D8-9587B777ED77}">
   <dimension ref="A1:C9"/>
   <sheetViews>

--- a/Commodities.xlsx
+++ b/Commodities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B775D9B-2837-474A-BCE2-1B4F85D243E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98536B90-C20D-4BBC-AB3D-E5E491425369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5810" yWindow="10270" windowWidth="13730" windowHeight="9460" tabRatio="750" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5290" yWindow="9130" windowWidth="13730" windowHeight="11490" tabRatio="750" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -22,17 +22,28 @@
     <sheet name="FeederCattle" sheetId="6" r:id="rId7"/>
     <sheet name="LeanHogs" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="44">
   <si>
     <t>Corn</t>
   </si>
@@ -116,6 +127,54 @@
   </si>
   <si>
     <t>May26</t>
+  </si>
+  <si>
+    <t>SouAm</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Tariff</t>
+  </si>
+  <si>
+    <t>Brazil prem hitting new highs, other buyers should go to US. https://x.com/EduardoVanin4/status/1901750038188916906</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Stock@ crushers dropping, stock bottom likely lower. https://x.com/EduardoVanin4/status/1901611844843737531</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Gov. support</t>
+  </si>
+  <si>
+    <t>China import data showing massive slowdown in corn and wheat imports through Jan/Feb. https://x.com/sizov_andre/status/1902011646328877388</t>
+  </si>
+  <si>
+    <t>China import data showing increase of imports through Jan/Feb, +4%. https://x.com/sizov_andre/status/1902011646328877388</t>
+  </si>
+  <si>
+    <t>45Z</t>
+  </si>
+  <si>
+    <t>Lack of clarity, soybean crush down versus norm. https://x.com/sizov_andre/status/1902011646328877388</t>
   </si>
 </sst>
 </file>
@@ -125,7 +184,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +196,31 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -172,7 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -184,6 +268,18 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -518,38 +614,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E165E3B-2812-418A-BA5E-2BD08A1FA388}">
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="P7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="T4" sqref="T4:U4"/>
+      <selection pane="bottomRight" activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="14.81640625" customWidth="1"/>
     <col min="3" max="9" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="21" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.453125" customWidth="1"/>
+    <col min="21" max="21" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.453125" style="17" customWidth="1"/>
+    <col min="23" max="23" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.453125" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>18</v>
@@ -605,14 +707,17 @@
       <c r="S4" s="2">
         <v>45730</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="2"/>
+      <c r="U4" s="2">
         <v>45733</v>
       </c>
-      <c r="U4" s="2">
+      <c r="V4" s="18"/>
+      <c r="W4" s="2">
         <v>45734</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="X4" s="18"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -671,65 +776,71 @@
         <v>443.2</v>
       </c>
       <c r="T5" s="5"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="U5" s="5"/>
+      <c r="V5" s="9"/>
+      <c r="X5" s="9"/>
+    </row>
+    <row r="6" spans="1:24" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13">
         <v>134052</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="13">
         <v>168137</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="13">
         <v>141085</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="13">
         <v>92742</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="13">
         <v>92823</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="13">
         <v>81712</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="13">
         <v>7600</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="13">
         <v>4482</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="13">
         <v>2253</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="13">
         <v>1169</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="13">
         <v>668</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="13">
         <v>311</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="13">
         <v>479</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="13">
         <v>76</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="13">
         <v>233</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="13">
         <v>101</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="13">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="T6" s="13"/>
+      <c r="V6" s="19"/>
+      <c r="X6" s="19"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -787,77 +898,95 @@
       <c r="S7" s="5">
         <v>458.6</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="5"/>
+      <c r="U7" s="5">
         <v>460.4</v>
       </c>
-      <c r="U7" s="5">
+      <c r="V7" s="9">
+        <f t="shared" ref="V7:V16" si="0">+W7-U7</f>
+        <v>-2.7999999999999545</v>
+      </c>
+      <c r="W7" s="5">
         <v>457.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="X7" s="9">
+        <f t="shared" ref="X7:X16" si="1">+Y7-W7</f>
+        <v>-457.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13">
         <v>157850</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="13">
         <v>225405</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="13">
         <v>264420</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="13">
         <v>223095</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="13">
         <v>213174</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="13">
         <v>307870</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="13">
         <v>266569</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="13">
         <v>834087</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="13">
         <v>364271</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="13">
         <v>253046</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="13">
         <v>295941</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="13">
         <v>170217</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="13">
         <v>141993</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="13">
         <v>176183</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="13">
         <v>214526</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="13">
         <v>172666</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="13">
         <v>225896</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T8" s="13"/>
+      <c r="U8" s="13">
         <v>165799</v>
       </c>
-      <c r="U8" s="7">
+      <c r="V8" s="16">
+        <f t="shared" si="0"/>
+        <v>-2063</v>
+      </c>
+      <c r="W8" s="13">
         <v>163736</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="X8" s="16">
+        <f t="shared" si="1"/>
+        <v>-163736</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -915,77 +1044,95 @@
       <c r="S9" s="5">
         <v>467.6</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="5"/>
+      <c r="U9" s="5">
         <v>469.6</v>
       </c>
-      <c r="U9" s="5">
+      <c r="V9" s="9">
+        <f t="shared" si="0"/>
+        <v>-2.6000000000000227</v>
+      </c>
+      <c r="W9" s="5">
         <v>467</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="X9" s="9">
+        <f t="shared" si="1"/>
+        <v>-467</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13">
         <v>59286</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="13">
         <v>97811</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="13">
         <v>102413</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="13">
         <v>94372</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="13">
         <v>82418</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="13">
         <v>121383</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="13">
         <v>114721</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="13">
         <v>406646</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="13">
         <v>224253</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="13">
         <v>132463</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="13">
         <v>163159</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="13">
         <v>101807</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="13">
         <v>74231</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="13">
         <v>110156</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="13">
         <v>131705</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="13">
         <v>113484</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S10" s="13">
         <v>165368</v>
       </c>
-      <c r="T10" s="7">
+      <c r="T10" s="13"/>
+      <c r="U10" s="13">
         <v>92612</v>
       </c>
-      <c r="U10" s="7">
+      <c r="V10" s="16">
+        <f t="shared" si="0"/>
+        <v>-764</v>
+      </c>
+      <c r="W10" s="13">
         <v>91848</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="X10" s="16">
+        <f t="shared" si="1"/>
+        <v>-91848</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1043,77 +1190,95 @@
       <c r="S11" s="5">
         <v>444.2</v>
       </c>
-      <c r="T11" s="5">
+      <c r="T11" s="5"/>
+      <c r="U11" s="5">
         <v>448.2</v>
       </c>
-      <c r="U11" s="5">
+      <c r="V11" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.5999999999999659</v>
+      </c>
+      <c r="W11" s="5">
         <v>446.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="X11" s="9">
+        <f t="shared" si="1"/>
+        <v>-446.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13">
         <v>28364</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="13">
         <v>26520</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="13">
         <v>37667</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="13">
         <v>37996</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="13">
         <v>34367</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="13">
         <v>51487</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="13">
         <v>47918</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="13">
         <v>255340</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="13">
         <v>65555</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="13">
         <v>46691</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="13">
         <v>53233</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="13">
         <v>43506</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="13">
         <v>28663</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="13">
         <v>40204</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="13">
         <v>59875</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="13">
         <v>39540</v>
       </c>
-      <c r="S12" s="7">
+      <c r="S12" s="13">
         <v>49284</v>
       </c>
-      <c r="T12" s="7">
+      <c r="T12" s="13"/>
+      <c r="U12" s="13">
         <v>34410</v>
       </c>
-      <c r="U12" s="7">
+      <c r="V12" s="16">
+        <f t="shared" si="0"/>
+        <v>6413</v>
+      </c>
+      <c r="W12" s="13">
         <v>40823</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="X12" s="16">
+        <f t="shared" si="1"/>
+        <v>-40823</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1171,77 +1336,95 @@
       <c r="S13" s="5">
         <v>451</v>
       </c>
-      <c r="T13" s="5">
+      <c r="T13" s="5"/>
+      <c r="U13" s="5">
         <v>454.6</v>
       </c>
-      <c r="U13" s="5">
+      <c r="V13" s="9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="W13" s="5">
         <v>453.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="X13" s="9">
+        <f t="shared" si="1"/>
+        <v>-453.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13">
         <v>32475</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="13">
         <v>29284</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="13">
         <v>46962</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="13">
         <v>55592</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="13">
         <v>44190</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="13">
         <v>72682</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="13">
         <v>69784</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="13">
         <v>326733</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="13">
         <v>126983</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="13">
         <v>80624</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="13">
         <v>90454</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="13">
         <v>60004</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="13">
         <v>39690</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="13">
         <v>49182</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="Q14" s="13">
         <v>79810</v>
       </c>
-      <c r="R14" s="7">
+      <c r="R14" s="13">
         <v>52347</v>
       </c>
-      <c r="S14" s="7">
+      <c r="S14" s="13">
         <v>67129</v>
       </c>
-      <c r="T14" s="7">
+      <c r="T14" s="13"/>
+      <c r="U14" s="13">
         <v>52225</v>
       </c>
-      <c r="U14" s="7">
+      <c r="V14" s="16">
+        <f t="shared" si="0"/>
+        <v>12298</v>
+      </c>
+      <c r="W14" s="13">
         <v>64523</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="X14" s="16">
+        <f t="shared" si="1"/>
+        <v>-64523</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1265,94 +1448,197 @@
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
-      <c r="T15" s="5">
+      <c r="T15" s="7"/>
+      <c r="U15" s="5">
         <v>467.2</v>
       </c>
-      <c r="U15">
+      <c r="V15" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.80000000000001137</v>
+      </c>
+      <c r="W15">
         <v>466.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="X15" s="9">
+        <f t="shared" si="1"/>
+        <v>-466.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13">
         <v>589</v>
       </c>
-      <c r="U16" s="7">
+      <c r="V16" s="16">
+        <f t="shared" si="0"/>
+        <v>4199</v>
+      </c>
+      <c r="W16" s="13">
         <v>4788</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="X16" s="16">
+        <f t="shared" si="1"/>
+        <v>-4788</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="V19" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="X19" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V20" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="X20" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V21" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="X21" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V22" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="X22" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V23" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="X23" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V24" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="X24" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V25" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="W25" t="s">
+        <v>40</v>
+      </c>
+      <c r="X25" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V26" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="X26" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V27" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="X27" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V28" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="X28" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="V29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="X29" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
     </row>
   </sheetData>
@@ -1367,29 +1653,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB6C7BA-262C-4899-BE72-FB33CE199B92}">
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="N11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R13" sqref="R13"/>
+      <selection pane="bottomRight" activeCell="T29" sqref="T29:T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="16.08984375" customWidth="1"/>
     <col min="2" max="6" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="19" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.453125" customWidth="1"/>
+    <col min="19" max="19" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.453125" customWidth="1"/>
+    <col min="21" max="21" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1397,7 +1688,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1405,7 +1696,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>18</v>
@@ -1455,14 +1746,16 @@
       <c r="Q4" s="2">
         <v>45733</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="2"/>
+      <c r="S4" s="2">
         <v>45734</v>
       </c>
-      <c r="S4" s="2">
+      <c r="T4" s="2"/>
+      <c r="U4" s="2">
         <v>45735</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1512,55 +1805,56 @@
         <v>992</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="7">
+      <c r="B6" s="12"/>
+      <c r="C6" s="13">
         <v>103372</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="13">
         <v>67515</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="13">
         <v>35088</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="13">
         <v>1753</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="13">
         <v>1756</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="13">
         <v>731</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="13">
         <v>162</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="13">
         <v>294</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="13">
         <v>112</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="13">
         <v>89</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="13">
         <v>66</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="13">
         <v>39</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="13">
         <v>33</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S6" s="15"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -1610,67 +1904,85 @@
         <v>1017</v>
       </c>
       <c r="Q7" s="5">
-        <v>1015</v>
-      </c>
-      <c r="R7" s="5">
+        <v>1015.4</v>
+      </c>
+      <c r="R7" s="9">
+        <f>+S7-Q7</f>
+        <v>-2.7999999999999545</v>
+      </c>
+      <c r="S7" s="5">
         <v>1012.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="T7" s="9">
+        <f>+U7-S7</f>
+        <v>-1012.6</v>
+      </c>
+      <c r="U7" s="5"/>
+    </row>
+    <row r="8" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="7">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13">
         <v>171329</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="13">
         <v>134182</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="13">
         <v>142004</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="13">
         <v>118780</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="13">
         <v>137904</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="13">
         <v>197706</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="13">
         <v>140272</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="13">
         <v>175854</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="13">
         <v>110547</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="13">
         <v>95335</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="13">
         <v>84374</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="13">
         <v>118700</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="13">
         <v>103619</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="13">
         <v>89657</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="13">
         <v>69728</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="16">
+        <f t="shared" ref="R8:T20" si="0">+S8-Q8</f>
+        <v>17010</v>
+      </c>
+      <c r="S8" s="13">
         <v>86738</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T8" s="16">
+        <f t="shared" si="0"/>
+        <v>-86738</v>
+      </c>
+      <c r="U8" s="15"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1720,67 +2032,85 @@
         <v>1031</v>
       </c>
       <c r="Q9">
-        <v>1028.5999999999999</v>
-      </c>
-      <c r="R9" s="5">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+        <v>1029.2</v>
+      </c>
+      <c r="R9" s="9">
+        <f t="shared" si="0"/>
+        <v>-2.7999999999999545</v>
+      </c>
+      <c r="S9" s="5">
+        <v>1026.4000000000001</v>
+      </c>
+      <c r="T9" s="9">
+        <f t="shared" si="0"/>
+        <v>-1026.4000000000001</v>
+      </c>
+      <c r="U9" s="5"/>
+    </row>
+    <row r="10" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="7">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13">
         <v>52539</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="13">
         <v>37757</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="13">
         <v>50392</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="13">
         <v>53289</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="13">
         <v>64665</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="13">
         <v>85658</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="13">
         <v>71776</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="13">
         <v>93047</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="13">
         <v>69393</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="13">
         <v>47611</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="13">
         <v>46299</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="13">
         <v>70817</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="13">
         <v>57568</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="13">
         <v>46353</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="13">
         <v>35124</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="16">
+        <f t="shared" si="0"/>
+        <v>13010</v>
+      </c>
+      <c r="S10" s="13">
         <v>48134</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T10" s="16">
+        <f t="shared" si="0"/>
+        <v>-48134</v>
+      </c>
+      <c r="U10" s="15"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,67 +2160,85 @@
         <v>1028.4000000000001</v>
       </c>
       <c r="Q11" s="5">
-        <v>1026</v>
-      </c>
-      <c r="R11" s="5">
-        <v>1023.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+        <v>1026.4000000000001</v>
+      </c>
+      <c r="R11" s="9">
+        <f t="shared" si="0"/>
+        <v>-3.0000000000001137</v>
+      </c>
+      <c r="S11" s="5">
+        <v>1023.4</v>
+      </c>
+      <c r="T11" s="9">
+        <f t="shared" si="0"/>
+        <v>-1023.4</v>
+      </c>
+      <c r="U11" s="5"/>
+    </row>
+    <row r="12" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="7">
+      <c r="B12" s="12"/>
+      <c r="C12" s="13">
         <v>5317</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="13">
         <v>5845</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="13">
         <v>8154</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="13">
         <v>8351</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="13">
         <v>10749</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="13">
         <v>12905</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="13">
         <v>14219</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="13">
         <v>11573</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="13">
         <v>7611</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="13">
         <v>5337</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="13">
         <v>5012</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="13">
         <v>8706</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="13">
         <v>7145</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="13">
         <v>5547</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="13">
         <v>4612</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="16">
+        <f t="shared" si="0"/>
+        <v>1506</v>
+      </c>
+      <c r="S12" s="13">
         <v>6118</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T12" s="16">
+        <f t="shared" si="0"/>
+        <v>-6118</v>
+      </c>
+      <c r="U12" s="15"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1940,67 +2288,85 @@
         <v>1014.2</v>
       </c>
       <c r="Q13" s="5">
-        <v>1013.2</v>
-      </c>
-      <c r="R13" s="5">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+        <v>1013.4</v>
+      </c>
+      <c r="R13" s="9">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="S13" s="5">
+        <v>1010.4</v>
+      </c>
+      <c r="T13" s="9">
+        <f t="shared" si="0"/>
+        <v>-1010.4</v>
+      </c>
+      <c r="U13" s="5"/>
+    </row>
+    <row r="14" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="7">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13">
         <v>3773</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="13">
         <v>3617</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="13">
         <v>5761</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="13">
         <v>3954</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="13">
         <v>8948</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="13">
         <v>11029</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="13">
         <v>10573</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="13">
         <v>6974</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="13">
         <v>5955</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="13">
         <v>4493</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="13">
         <v>3340</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="13">
         <v>4469</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="13">
         <v>4547</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="13">
         <v>4698</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="Q14" s="13">
         <v>3361</v>
       </c>
-      <c r="R14" s="7">
+      <c r="R14" s="16">
+        <f t="shared" si="0"/>
+        <v>602</v>
+      </c>
+      <c r="S14" s="13">
         <v>3963</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T14" s="16">
+        <f t="shared" si="0"/>
+        <v>-3963</v>
+      </c>
+      <c r="U14" s="15"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -2050,67 +2416,85 @@
         <v>1020</v>
       </c>
       <c r="Q15">
-        <v>1018.6</v>
-      </c>
-      <c r="R15">
-        <v>1014.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+        <v>1018.4</v>
+      </c>
+      <c r="R15" s="9">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="S15">
+        <v>1015.4</v>
+      </c>
+      <c r="T15" s="9">
+        <f t="shared" si="0"/>
+        <v>-1015.4</v>
+      </c>
+      <c r="U15" s="5"/>
+    </row>
+    <row r="16" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="7">
+      <c r="B16" s="12"/>
+      <c r="C16" s="13">
         <v>24802</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="13">
         <v>16612</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="13">
         <v>26331</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="13">
         <v>18469</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="13">
         <v>33152</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="13">
         <v>45459</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="13">
         <v>41336</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="13">
         <v>38514</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="13">
         <v>32132</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="13">
         <v>23857</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="13">
         <v>24762</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="13">
         <v>35369</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="13">
         <v>27973</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="13">
         <v>24863</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="Q16" s="13">
         <v>18501</v>
       </c>
-      <c r="R16" s="7">
+      <c r="R16" s="16">
+        <f t="shared" si="0"/>
+        <v>3203</v>
+      </c>
+      <c r="S16" s="13">
         <v>21704</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T16" s="16">
+        <f t="shared" si="0"/>
+        <v>-21704</v>
+      </c>
+      <c r="U16" s="15"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -2160,67 +2544,85 @@
         <v>1032</v>
       </c>
       <c r="Q17" s="5">
-        <v>1030.5999999999999</v>
-      </c>
-      <c r="R17" s="5">
-        <v>1027.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="R17" s="9">
+        <f t="shared" si="0"/>
+        <v>-3.5999999999999091</v>
+      </c>
+      <c r="S17" s="5">
+        <v>1027.4000000000001</v>
+      </c>
+      <c r="T17" s="9">
+        <f t="shared" si="0"/>
+        <v>-1027.4000000000001</v>
+      </c>
+      <c r="U17" s="5"/>
+    </row>
+    <row r="18" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="7">
+      <c r="B18" s="12"/>
+      <c r="C18" s="13">
         <v>2342</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="13">
         <v>2267</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="13">
         <v>2947</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="13">
         <v>2756</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="13">
         <v>4150</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="13">
         <v>7874</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="13">
         <v>5197</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="13">
         <v>5655</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="13">
         <v>3367</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="13">
         <v>2521</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="13">
         <v>2558</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="13">
         <v>3422</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="13">
         <v>3631</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="13">
         <v>3963</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="Q18" s="13">
         <v>2024</v>
       </c>
-      <c r="R18" s="7">
+      <c r="R18" s="16">
+        <f t="shared" si="0"/>
+        <v>845</v>
+      </c>
+      <c r="S18" s="13">
         <v>2869</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T18" s="16">
+        <f t="shared" si="0"/>
+        <v>-2869</v>
+      </c>
+      <c r="U18" s="15"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
@@ -2228,78 +2630,191 @@
         <v>45742</v>
       </c>
       <c r="Q19">
-        <v>1032.5999999999999</v>
-      </c>
-      <c r="R19">
-        <v>1031.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+        <v>1035.5999999999999</v>
+      </c>
+      <c r="R19" s="9">
+        <f t="shared" si="0"/>
+        <v>-4.1999999999998181</v>
+      </c>
+      <c r="S19">
+        <v>1031.4000000000001</v>
+      </c>
+      <c r="T19" s="9">
+        <f t="shared" si="0"/>
+        <v>-1031.4000000000001</v>
+      </c>
+      <c r="U19" s="5"/>
+    </row>
+    <row r="20" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="14">
         <v>986</v>
       </c>
-      <c r="R20" s="7">
+      <c r="R20" s="16">
+        <f t="shared" si="0"/>
+        <v>449</v>
+      </c>
+      <c r="S20" s="13">
         <v>1435</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+      <c r="T20" s="16">
+        <f t="shared" si="0"/>
+        <v>-1435</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="R22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T22" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T24" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T25" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>34</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T26" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R27" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T27" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>36</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S28" t="s">
+        <v>41</v>
+      </c>
+      <c r="T28" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R29" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T29" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R30" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T30" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R31" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T31" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="R32" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T32" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>43</v>
+      </c>
+      <c r="R33" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T33" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
     </row>
   </sheetData>
@@ -2315,7 +2830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17153CF0-C916-474D-813B-96B52F64C333}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>

--- a/Commodities.xlsx
+++ b/Commodities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98536B90-C20D-4BBC-AB3D-E5E491425369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3158E15-B9A6-4CF0-866E-BCE8C671E3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5290" yWindow="9130" windowWidth="13730" windowHeight="11490" tabRatio="750" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24430" yWindow="0" windowWidth="14060" windowHeight="20970" tabRatio="750" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="45">
   <si>
     <t>Corn</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>Lack of clarity, soybean crush down versus norm. https://x.com/sizov_andre/status/1902011646328877388</t>
+  </si>
+  <si>
+    <t>Brz has zero excess corn, production issues with 2nd crop corn will help US corn demand. https://x.com/drbrock37/status/1903128488305103146</t>
   </si>
 </sst>
 </file>
@@ -614,13 +617,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E165E3B-2812-418A-BA5E-2BD08A1FA388}">
-  <dimension ref="A1:X32"/>
+  <dimension ref="A1:AD32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="P7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="R5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="W26" sqref="W26"/>
+      <selection pane="bottomRight" activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -633,25 +636,31 @@
     <col min="22" max="22" width="9.453125" style="17" customWidth="1"/>
     <col min="23" max="23" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9.453125" style="17" customWidth="1"/>
+    <col min="25" max="25" width="10.90625" customWidth="1"/>
+    <col min="26" max="26" width="3.36328125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.453125" customWidth="1"/>
+    <col min="28" max="28" width="3.36328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.26953125" customWidth="1"/>
+    <col min="30" max="30" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>18</v>
@@ -713,11 +722,27 @@
       </c>
       <c r="V4" s="18"/>
       <c r="W4" s="2">
+        <f>+U4+1</f>
         <v>45734</v>
       </c>
       <c r="X4" s="18"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y4" s="2">
+        <f>+W4+1</f>
+        <v>45735</v>
+      </c>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="2">
+        <f>+Y4+1</f>
+        <v>45736</v>
+      </c>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="2">
+        <f>+AA4+1</f>
+        <v>45737</v>
+      </c>
+      <c r="AD4" s="18"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -779,8 +804,11 @@
       <c r="U5" s="5"/>
       <c r="V5" s="9"/>
       <c r="X5" s="9"/>
-    </row>
-    <row r="6" spans="1:24" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Z5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AD5" s="9"/>
+    </row>
+    <row r="6" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>26</v>
       </c>
@@ -839,8 +867,11 @@
       <c r="T6" s="13"/>
       <c r="V6" s="19"/>
       <c r="X6" s="19"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Z6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AD6" s="19"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -898,12 +929,15 @@
       <c r="S7" s="5">
         <v>458.6</v>
       </c>
-      <c r="T7" s="5"/>
+      <c r="T7" s="9">
+        <f t="shared" ref="T7:V16" si="0">+U7-S7</f>
+        <v>1.7999999999999545</v>
+      </c>
       <c r="U7" s="5">
         <v>460.4</v>
       </c>
       <c r="V7" s="9">
-        <f t="shared" ref="V7:V16" si="0">+W7-U7</f>
+        <f t="shared" si="0"/>
         <v>-2.7999999999999545</v>
       </c>
       <c r="W7" s="5">
@@ -911,10 +945,27 @@
       </c>
       <c r="X7" s="9">
         <f t="shared" ref="X7:X16" si="1">+Y7-W7</f>
-        <v>-457.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" s="14" customFormat="1" x14ac:dyDescent="0.35">
+        <v>4.3999999999999773</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>462</v>
+      </c>
+      <c r="Z7" s="9">
+        <f t="shared" ref="Z7:Z16" si="2">+AA7-Y7</f>
+        <v>-462</v>
+      </c>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="9">
+        <f t="shared" ref="AB7:AB16" si="3">+AC7-AA7</f>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="9">
+        <f t="shared" ref="AD7:AD16" si="4">+AE7-AC7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>26</v>
       </c>
@@ -970,7 +1021,10 @@
       <c r="S8" s="13">
         <v>225896</v>
       </c>
-      <c r="T8" s="13"/>
+      <c r="T8" s="16">
+        <f t="shared" si="0"/>
+        <v>-60097</v>
+      </c>
       <c r="U8" s="13">
         <v>165799</v>
       </c>
@@ -983,10 +1037,27 @@
       </c>
       <c r="X8" s="16">
         <f t="shared" si="1"/>
-        <v>-163736</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+        <v>10254</v>
+      </c>
+      <c r="Y8" s="13">
+        <v>173990</v>
+      </c>
+      <c r="Z8" s="16">
+        <f t="shared" si="2"/>
+        <v>-173990</v>
+      </c>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1044,7 +1115,10 @@
       <c r="S9" s="5">
         <v>467.6</v>
       </c>
-      <c r="T9" s="5"/>
+      <c r="T9" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="U9" s="5">
         <v>469.6</v>
       </c>
@@ -1057,10 +1131,27 @@
       </c>
       <c r="X9" s="9">
         <f t="shared" si="1"/>
-        <v>-467</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" s="14" customFormat="1" x14ac:dyDescent="0.35">
+        <v>2.1999999999999886</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>469.2</v>
+      </c>
+      <c r="Z9" s="9">
+        <f t="shared" si="2"/>
+        <v>-469.2</v>
+      </c>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>26</v>
       </c>
@@ -1116,7 +1207,10 @@
       <c r="S10" s="13">
         <v>165368</v>
       </c>
-      <c r="T10" s="13"/>
+      <c r="T10" s="16">
+        <f t="shared" si="0"/>
+        <v>-72756</v>
+      </c>
       <c r="U10" s="13">
         <v>92612</v>
       </c>
@@ -1129,10 +1223,27 @@
       </c>
       <c r="X10" s="16">
         <f t="shared" si="1"/>
-        <v>-91848</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+        <v>2737</v>
+      </c>
+      <c r="Y10" s="13">
+        <v>94585</v>
+      </c>
+      <c r="Z10" s="16">
+        <f t="shared" si="2"/>
+        <v>-94585</v>
+      </c>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1190,7 +1301,10 @@
       <c r="S11" s="5">
         <v>444.2</v>
       </c>
-      <c r="T11" s="5"/>
+      <c r="T11" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="U11" s="5">
         <v>448.2</v>
       </c>
@@ -1203,10 +1317,27 @@
       </c>
       <c r="X11" s="9">
         <f t="shared" si="1"/>
-        <v>-446.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" s="14" customFormat="1" x14ac:dyDescent="0.35">
+        <v>-1.4000000000000341</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>445.2</v>
+      </c>
+      <c r="Z11" s="9">
+        <f t="shared" si="2"/>
+        <v>-445.2</v>
+      </c>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>26</v>
       </c>
@@ -1262,7 +1393,10 @@
       <c r="S12" s="13">
         <v>49284</v>
       </c>
-      <c r="T12" s="13"/>
+      <c r="T12" s="16">
+        <f t="shared" si="0"/>
+        <v>-14874</v>
+      </c>
       <c r="U12" s="13">
         <v>34410</v>
       </c>
@@ -1275,10 +1409,27 @@
       </c>
       <c r="X12" s="16">
         <f t="shared" si="1"/>
-        <v>-40823</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+        <v>-11450</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>29373</v>
+      </c>
+      <c r="Z12" s="16">
+        <f t="shared" si="2"/>
+        <v>-29373</v>
+      </c>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1336,7 +1487,10 @@
       <c r="S13" s="5">
         <v>451</v>
       </c>
-      <c r="T13" s="5"/>
+      <c r="T13" s="9">
+        <f t="shared" si="0"/>
+        <v>3.6000000000000227</v>
+      </c>
       <c r="U13" s="5">
         <v>454.6</v>
       </c>
@@ -1349,10 +1503,27 @@
       </c>
       <c r="X13" s="9">
         <f t="shared" si="1"/>
-        <v>-453.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" s="14" customFormat="1" x14ac:dyDescent="0.35">
+        <v>-2.2000000000000455</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>451.4</v>
+      </c>
+      <c r="Z13" s="9">
+        <f t="shared" si="2"/>
+        <v>-451.4</v>
+      </c>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>26</v>
       </c>
@@ -1408,7 +1579,10 @@
       <c r="S14" s="13">
         <v>67129</v>
       </c>
-      <c r="T14" s="13"/>
+      <c r="T14" s="16">
+        <f t="shared" si="0"/>
+        <v>-14904</v>
+      </c>
       <c r="U14" s="13">
         <v>52225</v>
       </c>
@@ -1421,10 +1595,27 @@
       </c>
       <c r="X14" s="16">
         <f t="shared" si="1"/>
-        <v>-64523</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+        <v>-18549</v>
+      </c>
+      <c r="Y14" s="13">
+        <v>45974</v>
+      </c>
+      <c r="Z14" s="16">
+        <f t="shared" si="2"/>
+        <v>-45974</v>
+      </c>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1448,7 +1639,10 @@
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
+      <c r="T15" s="9">
+        <f t="shared" si="0"/>
+        <v>467.2</v>
+      </c>
       <c r="U15" s="5">
         <v>467.2</v>
       </c>
@@ -1461,10 +1655,25 @@
       </c>
       <c r="X15" s="9">
         <f t="shared" si="1"/>
-        <v>-466.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" s="14" customFormat="1" x14ac:dyDescent="0.35">
+        <v>-2.1999999999999886</v>
+      </c>
+      <c r="Y15">
+        <v>464.2</v>
+      </c>
+      <c r="Z15" s="9">
+        <f t="shared" si="2"/>
+        <v>-464.2</v>
+      </c>
+      <c r="AB15" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>26</v>
       </c>
@@ -1486,7 +1695,10 @@
       <c r="Q16" s="13"/>
       <c r="R16" s="13"/>
       <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
+      <c r="T16" s="16">
+        <f t="shared" si="0"/>
+        <v>589</v>
+      </c>
       <c r="U16" s="13">
         <v>589</v>
       </c>
@@ -1499,85 +1711,185 @@
       </c>
       <c r="X16" s="16">
         <f t="shared" si="1"/>
-        <v>-4788</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+        <v>-449</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>4339</v>
+      </c>
+      <c r="Z16" s="16">
+        <f t="shared" si="2"/>
+        <v>-4339</v>
+      </c>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="T17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AD17" s="17"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="T18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AD18" s="17"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="T19" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="V19" s="20" t="s">
         <v>35</v>
       </c>
       <c r="X19" s="20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Z19" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB19" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD19" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="T20" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="V20" s="20" t="s">
         <v>35</v>
       </c>
       <c r="X20" s="20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Z20" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB20" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD20" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="T21" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="V21" s="20" t="s">
         <v>35</v>
       </c>
       <c r="X21" s="20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Z21" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB21" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD21" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="T22" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="V22" s="20" t="s">
         <v>35</v>
       </c>
       <c r="X22" s="20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Z22" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB22" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD22" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="T23" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="V23" s="20" t="s">
         <v>35</v>
       </c>
       <c r="X23" s="20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Z23" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB23" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD23" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="T24" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="V24" s="20" t="s">
         <v>35</v>
       </c>
       <c r="X24" s="20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Z24" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB24" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD24" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="T25" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="V25" s="20" t="s">
         <v>35</v>
       </c>
@@ -1587,58 +1899,122 @@
       <c r="X25" s="20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Z25" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB25" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD25" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="T26" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="V26" s="20" t="s">
         <v>35</v>
       </c>
       <c r="X26" s="20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Z26" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB26" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD26" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="T27" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="V27" s="20" t="s">
         <v>35</v>
       </c>
       <c r="X27" s="20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Z27" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB27" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD27" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="T28" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="V28" s="20" t="s">
         <v>35</v>
       </c>
       <c r="X28" s="20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Z28" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB28" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD28" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="T29" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="V29" s="20" t="s">
         <v>35</v>
       </c>
       <c r="X29" s="20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Z29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD29" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="T30" s="17"/>
+      <c r="Z30" s="17"/>
+      <c r="AB30" s="17"/>
+      <c r="AD30" s="17"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Z31" s="17"/>
+      <c r="AB31" s="17"/>
+      <c r="AD31" s="17"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
     </row>
   </sheetData>
@@ -1653,13 +2029,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB6C7BA-262C-4899-BE72-FB33CE199B92}">
-  <dimension ref="A1:U37"/>
+  <dimension ref="A1:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="N11" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="S5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="T29" sqref="T29:T33"/>
+      <selection pane="bottomRight" activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1672,15 +2048,21 @@
     <col min="19" max="19" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.453125" customWidth="1"/>
     <col min="21" max="21" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.453125" customWidth="1"/>
+    <col min="23" max="23" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.453125" customWidth="1"/>
+    <col min="25" max="25" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.453125" customWidth="1"/>
+    <col min="27" max="27" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1688,7 +2070,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1696,7 +2078,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>18</v>
@@ -1754,8 +2136,23 @@
       <c r="U4" s="2">
         <v>45735</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V4" s="2"/>
+      <c r="W4" s="2">
+        <f>+U4+1</f>
+        <v>45736</v>
+      </c>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2">
+        <f>+W4+1</f>
+        <v>45737</v>
+      </c>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2">
+        <f>+Y4+1</f>
+        <v>45738</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1805,7 +2202,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>26</v>
       </c>
@@ -1854,7 +2251,7 @@
       </c>
       <c r="S6" s="15"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -1918,8 +2315,23 @@
         <v>-1012.6</v>
       </c>
       <c r="U7" s="5"/>
-    </row>
-    <row r="8" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="V7" s="9">
+        <f>+W7-U7</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="5"/>
+      <c r="X7" s="9">
+        <f>+Y7-W7</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="9">
+        <f>+AA7-Y7</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="5"/>
+    </row>
+    <row r="8" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>26</v>
       </c>
@@ -1981,8 +2393,23 @@
         <v>-86738</v>
       </c>
       <c r="U8" s="15"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V8" s="16">
+        <f t="shared" ref="V8:V20" si="1">+W8-U8</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="15"/>
+      <c r="X8" s="16">
+        <f t="shared" ref="X8:X20" si="2">+Y8-W8</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="16">
+        <f t="shared" ref="Z8:Z20" si="3">+AA8-Y8</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="15"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -2046,8 +2473,23 @@
         <v>-1026.4000000000001</v>
       </c>
       <c r="U9" s="5"/>
-    </row>
-    <row r="10" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="V9" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="5"/>
+      <c r="X9" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="5"/>
+    </row>
+    <row r="10" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>26</v>
       </c>
@@ -2109,8 +2551,23 @@
         <v>-48134</v>
       </c>
       <c r="U10" s="15"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V10" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="15"/>
+      <c r="X10" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="15"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -2174,8 +2631,23 @@
         <v>-1023.4</v>
       </c>
       <c r="U11" s="5"/>
-    </row>
-    <row r="12" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="V11" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="5"/>
+      <c r="X11" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="5"/>
+    </row>
+    <row r="12" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>26</v>
       </c>
@@ -2237,8 +2709,23 @@
         <v>-6118</v>
       </c>
       <c r="U12" s="15"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V12" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="15"/>
+      <c r="X12" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="15"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -2302,8 +2789,23 @@
         <v>-1010.4</v>
       </c>
       <c r="U13" s="5"/>
-    </row>
-    <row r="14" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="V13" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="5"/>
+      <c r="X13" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="5"/>
+    </row>
+    <row r="14" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>26</v>
       </c>
@@ -2365,8 +2867,23 @@
         <v>-3963</v>
       </c>
       <c r="U14" s="15"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V14" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="15"/>
+      <c r="X14" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="15"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -2430,8 +2947,23 @@
         <v>-1015.4</v>
       </c>
       <c r="U15" s="5"/>
-    </row>
-    <row r="16" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="V15" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="5"/>
+      <c r="X15" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="5"/>
+    </row>
+    <row r="16" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>26</v>
       </c>
@@ -2493,8 +3025,23 @@
         <v>-21704</v>
       </c>
       <c r="U16" s="15"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V16" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="15"/>
+      <c r="X16" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="15"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -2558,8 +3105,23 @@
         <v>-1027.4000000000001</v>
       </c>
       <c r="U17" s="5"/>
-    </row>
-    <row r="18" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="V17" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="5"/>
+      <c r="X17" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="5"/>
+    </row>
+    <row r="18" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>26</v>
       </c>
@@ -2621,8 +3183,23 @@
         <v>-2869</v>
       </c>
       <c r="U18" s="15"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V18" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="15"/>
+      <c r="X18" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="15"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
@@ -2644,8 +3221,23 @@
         <v>-1031.4000000000001</v>
       </c>
       <c r="U19" s="5"/>
-    </row>
-    <row r="20" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="V19" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="5"/>
+      <c r="X19" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="5"/>
+    </row>
+    <row r="20" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>26</v>
       </c>
@@ -2663,11 +3255,23 @@
         <f t="shared" si="0"/>
         <v>-1435</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V20" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
@@ -2677,13 +3281,22 @@
       <c r="T22" s="10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="X22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z22" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
@@ -2693,8 +3306,17 @@
       <c r="T24" s="10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="X24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z24" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
@@ -2704,8 +3326,17 @@
       <c r="T25" s="10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="X25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z25" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
@@ -2718,8 +3349,20 @@
       <c r="T26" s="10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="X26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z26" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
@@ -2729,8 +3372,17 @@
       <c r="T27" s="10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V27" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="X27" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z27" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>31</v>
       </c>
@@ -2746,8 +3398,17 @@
       <c r="T28" s="10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V28" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="X28" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z28" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>37</v>
       </c>
@@ -2757,8 +3418,17 @@
       <c r="T29" s="10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V29" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="X29" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z29" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>38</v>
       </c>
@@ -2768,8 +3438,17 @@
       <c r="T30" s="10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V30" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="X30" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z30" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
@@ -2779,8 +3458,17 @@
       <c r="T31" s="10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V31" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="X31" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z31" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>6</v>
       </c>
@@ -2790,8 +3478,17 @@
       <c r="T32" s="10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V32" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="X32" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z32" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>42</v>
       </c>
@@ -2804,17 +3501,26 @@
       <c r="T33" s="10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V33" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="X33" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z33" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
     </row>
   </sheetData>

--- a/Commodities.xlsx
+++ b/Commodities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3158E15-B9A6-4CF0-866E-BCE8C671E3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3180AE-697E-4499-AAEB-B78BC92743D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24430" yWindow="0" windowWidth="14060" windowHeight="20970" tabRatio="750" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="13890" windowHeight="16130" tabRatio="750" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="45">
   <si>
     <t>Corn</t>
   </si>
@@ -259,7 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -283,6 +283,7 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -617,13 +618,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E165E3B-2812-418A-BA5E-2BD08A1FA388}">
-  <dimension ref="A1:AD32"/>
+  <dimension ref="A1:AT32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="R5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="AE5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Z15" sqref="Z15"/>
+      <selection pane="bottomRight" activeCell="AS13" sqref="AS13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -637,30 +638,28 @@
     <col min="23" max="23" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9.453125" style="17" customWidth="1"/>
     <col min="25" max="25" width="10.90625" customWidth="1"/>
-    <col min="26" max="26" width="3.36328125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.453125" customWidth="1"/>
-    <col min="28" max="28" width="3.36328125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.26953125" customWidth="1"/>
-    <col min="30" max="30" width="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.453125" customWidth="1"/>
+    <col min="28" max="34" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>18</v>
@@ -741,8 +740,48 @@
         <v>45737</v>
       </c>
       <c r="AD4" s="18"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE4" s="2">
+        <f>+AC4+1</f>
+        <v>45738</v>
+      </c>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="2">
+        <f>+AE4+1</f>
+        <v>45739</v>
+      </c>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="2">
+        <f>+AG4+1</f>
+        <v>45740</v>
+      </c>
+      <c r="AJ4" s="18"/>
+      <c r="AK4" s="2">
+        <f>+AI4+1</f>
+        <v>45741</v>
+      </c>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="2">
+        <f>+AK4+1</f>
+        <v>45742</v>
+      </c>
+      <c r="AN4" s="18"/>
+      <c r="AO4" s="2">
+        <f>+AM4+1</f>
+        <v>45743</v>
+      </c>
+      <c r="AP4" s="18"/>
+      <c r="AQ4" s="2">
+        <f>+AO4+1</f>
+        <v>45744</v>
+      </c>
+      <c r="AR4" s="18"/>
+      <c r="AS4" s="2">
+        <f>+AQ4+1</f>
+        <v>45745</v>
+      </c>
+      <c r="AT4" s="18"/>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -807,8 +846,16 @@
       <c r="Z5" s="9"/>
       <c r="AB5" s="9"/>
       <c r="AD5" s="9"/>
-    </row>
-    <row r="6" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AF5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AN5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AT5" s="9"/>
+    </row>
+    <row r="6" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>26</v>
       </c>
@@ -870,8 +917,16 @@
       <c r="Z6" s="19"/>
       <c r="AB6" s="19"/>
       <c r="AD6" s="19"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AF6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AJ6" s="19"/>
+      <c r="AL6" s="19"/>
+      <c r="AN6" s="19"/>
+      <c r="AP6" s="19"/>
+      <c r="AR6" s="19"/>
+      <c r="AT6" s="19"/>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -951,21 +1006,71 @@
         <v>462</v>
       </c>
       <c r="Z7" s="9">
-        <f t="shared" ref="Z7:Z16" si="2">+AA7-Y7</f>
+        <f>AA7-Y7</f>
         <v>-462</v>
       </c>
       <c r="AA7" s="5"/>
       <c r="AB7" s="9">
-        <f t="shared" ref="AB7:AB16" si="3">+AC7-AA7</f>
+        <f t="shared" ref="AB7:AB16" si="2">+AC7-AA7</f>
         <v>0</v>
       </c>
       <c r="AC7" s="5"/>
       <c r="AD7" s="9">
-        <f t="shared" ref="AD7:AD16" si="4">+AE7-AC7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="AD7:AD16" si="3">+AE7-AC7</f>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="9">
+        <f t="shared" ref="AF7:AF16" si="4">+AG7-AE7</f>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="9">
+        <f t="shared" ref="AH7:AH16" si="5">+AI7-AG7</f>
+        <v>464.4</v>
+      </c>
+      <c r="AI7" s="5">
+        <v>464.4</v>
+      </c>
+      <c r="AJ7" s="9">
+        <f t="shared" ref="AJ7:AJ16" si="6">+AK7-AI7</f>
+        <v>-6.7999999999999545</v>
+      </c>
+      <c r="AK7" s="5">
+        <v>457.6</v>
+      </c>
+      <c r="AL7" s="9">
+        <f t="shared" ref="AL7:AL16" si="7">+AM7-AK7</f>
+        <v>-6.4000000000000341</v>
+      </c>
+      <c r="AM7" s="5">
+        <v>451.2</v>
+      </c>
+      <c r="AN7" s="9">
+        <f t="shared" ref="AN7:AN16" si="8">+AO7-AM7</f>
+        <v>-1.1999999999999886</v>
+      </c>
+      <c r="AO7" s="5">
+        <v>450</v>
+      </c>
+      <c r="AP7" s="9">
+        <f t="shared" ref="AP7:AP16" si="9">+AQ7-AO7</f>
+        <v>3.1999999999999886</v>
+      </c>
+      <c r="AQ7" s="5">
+        <v>453.2</v>
+      </c>
+      <c r="AR7" s="9">
+        <f t="shared" ref="AR7:AR16" si="10">+AS7-AQ7</f>
+        <v>-453.2</v>
+      </c>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="9">
+        <f t="shared" ref="AT7:AT16" si="11">+AU7-AS7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>26</v>
       </c>
@@ -1042,22 +1147,72 @@
       <c r="Y8" s="13">
         <v>173990</v>
       </c>
-      <c r="Z8" s="16">
-        <f t="shared" si="2"/>
+      <c r="Z8" s="9">
+        <f t="shared" ref="Z8:Z16" si="12">AA8-Y8</f>
         <v>-173990</v>
       </c>
       <c r="AA8" s="13"/>
       <c r="AB8" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC8" s="13"/>
       <c r="AD8" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="16">
+        <f t="shared" si="5"/>
+        <v>110834</v>
+      </c>
+      <c r="AI8" s="13">
+        <v>110834</v>
+      </c>
+      <c r="AJ8" s="16">
+        <f t="shared" si="6"/>
+        <v>22259</v>
+      </c>
+      <c r="AK8" s="13">
+        <v>133093</v>
+      </c>
+      <c r="AL8" s="16">
+        <f t="shared" si="7"/>
+        <v>2104</v>
+      </c>
+      <c r="AM8" s="13">
+        <v>135197</v>
+      </c>
+      <c r="AN8" s="16">
+        <f t="shared" si="8"/>
+        <v>18956</v>
+      </c>
+      <c r="AO8" s="13">
+        <v>154153</v>
+      </c>
+      <c r="AP8" s="16">
+        <f t="shared" si="9"/>
+        <v>33091</v>
+      </c>
+      <c r="AQ8" s="13">
+        <v>187244</v>
+      </c>
+      <c r="AR8" s="16">
+        <f t="shared" si="10"/>
+        <v>-187244</v>
+      </c>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1137,21 +1292,71 @@
         <v>469.2</v>
       </c>
       <c r="Z9" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>-469.2</v>
       </c>
       <c r="AA9" s="5"/>
       <c r="AB9" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC9" s="5"/>
       <c r="AD9" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="9">
+        <f t="shared" si="5"/>
+        <v>470</v>
+      </c>
+      <c r="AI9" s="5">
+        <v>470</v>
+      </c>
+      <c r="AJ9" s="9">
+        <f t="shared" si="6"/>
+        <v>-4.8000000000000114</v>
+      </c>
+      <c r="AK9" s="5">
+        <v>465.2</v>
+      </c>
+      <c r="AL9" s="9">
+        <f t="shared" si="7"/>
+        <v>-6.1999999999999886</v>
+      </c>
+      <c r="AM9" s="5">
+        <v>459</v>
+      </c>
+      <c r="AN9" s="9">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="AO9" s="5">
+        <v>458</v>
+      </c>
+      <c r="AP9" s="9">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AQ9" s="5">
+        <v>460</v>
+      </c>
+      <c r="AR9" s="9">
+        <f t="shared" si="10"/>
+        <v>-460</v>
+      </c>
+      <c r="AS9" s="5"/>
+      <c r="AT9" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>26</v>
       </c>
@@ -1228,22 +1433,72 @@
       <c r="Y10" s="13">
         <v>94585</v>
       </c>
-      <c r="Z10" s="16">
-        <f t="shared" si="2"/>
+      <c r="Z10" s="9">
+        <f t="shared" si="12"/>
         <v>-94585</v>
       </c>
       <c r="AA10" s="13"/>
       <c r="AB10" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC10" s="13"/>
       <c r="AD10" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="16">
+        <f t="shared" si="5"/>
+        <v>61522</v>
+      </c>
+      <c r="AI10" s="13">
+        <v>61522</v>
+      </c>
+      <c r="AJ10" s="16">
+        <f t="shared" si="6"/>
+        <v>32242</v>
+      </c>
+      <c r="AK10" s="13">
+        <v>93764</v>
+      </c>
+      <c r="AL10" s="16">
+        <f t="shared" si="7"/>
+        <v>-14209</v>
+      </c>
+      <c r="AM10" s="13">
+        <v>79555</v>
+      </c>
+      <c r="AN10" s="16">
+        <f t="shared" si="8"/>
+        <v>37625</v>
+      </c>
+      <c r="AO10" s="13">
+        <v>117180</v>
+      </c>
+      <c r="AP10" s="16">
+        <f t="shared" si="9"/>
+        <v>13324</v>
+      </c>
+      <c r="AQ10" s="13">
+        <v>130504</v>
+      </c>
+      <c r="AR10" s="16">
+        <f t="shared" si="10"/>
+        <v>-130504</v>
+      </c>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1323,21 +1578,71 @@
         <v>445.2</v>
       </c>
       <c r="Z11" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>-445.2</v>
       </c>
       <c r="AA11" s="5"/>
       <c r="AB11" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC11" s="5"/>
       <c r="AD11" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="9">
+        <f t="shared" si="5"/>
+        <v>445</v>
+      </c>
+      <c r="AI11" s="5">
+        <v>445</v>
+      </c>
+      <c r="AJ11" s="9">
+        <f t="shared" si="6"/>
+        <v>-3</v>
+      </c>
+      <c r="AK11" s="5">
+        <v>442</v>
+      </c>
+      <c r="AL11" s="9">
+        <f t="shared" si="7"/>
+        <v>-5</v>
+      </c>
+      <c r="AM11" s="5">
+        <v>437</v>
+      </c>
+      <c r="AN11" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.80000000000001137</v>
+      </c>
+      <c r="AO11" s="5">
+        <v>436.2</v>
+      </c>
+      <c r="AP11" s="9">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="AQ11" s="5">
+        <v>435.2</v>
+      </c>
+      <c r="AR11" s="9">
+        <f t="shared" si="10"/>
+        <v>-435.2</v>
+      </c>
+      <c r="AS11" s="5"/>
+      <c r="AT11" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>26</v>
       </c>
@@ -1414,22 +1719,72 @@
       <c r="Y12" s="13">
         <v>29373</v>
       </c>
-      <c r="Z12" s="16">
-        <f t="shared" si="2"/>
+      <c r="Z12" s="9">
+        <f t="shared" si="12"/>
         <v>-29373</v>
       </c>
       <c r="AA12" s="13"/>
       <c r="AB12" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC12" s="13"/>
       <c r="AD12" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="16">
+        <f t="shared" si="5"/>
+        <v>27695</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>27695</v>
+      </c>
+      <c r="AJ12" s="16">
+        <f t="shared" si="6"/>
+        <v>5666</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>33361</v>
+      </c>
+      <c r="AL12" s="16">
+        <f t="shared" si="7"/>
+        <v>2761</v>
+      </c>
+      <c r="AM12" s="13">
+        <v>36122</v>
+      </c>
+      <c r="AN12" s="16">
+        <f t="shared" si="8"/>
+        <v>13878</v>
+      </c>
+      <c r="AO12" s="13">
+        <v>50000</v>
+      </c>
+      <c r="AP12" s="16">
+        <f t="shared" si="9"/>
+        <v>-5009</v>
+      </c>
+      <c r="AQ12" s="13">
+        <v>44991</v>
+      </c>
+      <c r="AR12" s="16">
+        <f t="shared" si="10"/>
+        <v>-44991</v>
+      </c>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1509,21 +1864,71 @@
         <v>451.4</v>
       </c>
       <c r="Z13" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>-451.4</v>
       </c>
       <c r="AA13" s="5"/>
       <c r="AB13" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC13" s="5"/>
       <c r="AD13" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="9">
+        <f t="shared" si="5"/>
+        <v>451.4</v>
+      </c>
+      <c r="AI13" s="5">
+        <v>451.4</v>
+      </c>
+      <c r="AJ13" s="9">
+        <f t="shared" si="6"/>
+        <v>-2.3999999999999773</v>
+      </c>
+      <c r="AK13" s="5">
+        <v>449</v>
+      </c>
+      <c r="AL13" s="9">
+        <f t="shared" si="7"/>
+        <v>-4.6000000000000227</v>
+      </c>
+      <c r="AM13" s="5">
+        <v>444.4</v>
+      </c>
+      <c r="AN13" s="9">
+        <f t="shared" si="8"/>
+        <v>-0.79999999999995453</v>
+      </c>
+      <c r="AO13" s="5">
+        <v>443.6</v>
+      </c>
+      <c r="AP13" s="9">
+        <f t="shared" si="9"/>
+        <v>-1.2000000000000455</v>
+      </c>
+      <c r="AQ13" s="5">
+        <v>442.4</v>
+      </c>
+      <c r="AR13" s="9">
+        <f t="shared" si="10"/>
+        <v>-442.4</v>
+      </c>
+      <c r="AS13" s="5"/>
+      <c r="AT13" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>26</v>
       </c>
@@ -1600,45 +2005,78 @@
       <c r="Y14" s="13">
         <v>45974</v>
       </c>
-      <c r="Z14" s="16">
-        <f t="shared" si="2"/>
+      <c r="Z14" s="9">
+        <f t="shared" si="12"/>
         <v>-45974</v>
       </c>
       <c r="AA14" s="13"/>
       <c r="AB14" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC14" s="13"/>
       <c r="AD14" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="16">
+        <f t="shared" si="5"/>
+        <v>29931</v>
+      </c>
+      <c r="AI14" s="13">
+        <v>29931</v>
+      </c>
+      <c r="AJ14" s="16">
+        <f t="shared" si="6"/>
+        <v>14020</v>
+      </c>
+      <c r="AK14" s="13">
+        <v>43951</v>
+      </c>
+      <c r="AL14" s="16">
+        <f t="shared" si="7"/>
+        <v>8043</v>
+      </c>
+      <c r="AM14" s="13">
+        <v>51994</v>
+      </c>
+      <c r="AN14" s="16">
+        <f t="shared" si="8"/>
+        <v>17796</v>
+      </c>
+      <c r="AO14" s="13">
+        <v>69790</v>
+      </c>
+      <c r="AP14" s="16">
+        <f t="shared" si="9"/>
+        <v>9614</v>
+      </c>
+      <c r="AQ14" s="13">
+        <v>79404</v>
+      </c>
+      <c r="AR14" s="16">
+        <f t="shared" si="10"/>
+        <v>-79404</v>
+      </c>
+      <c r="AS14" s="13"/>
+      <c r="AT14" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
       <c r="T15" s="9">
         <f t="shared" si="0"/>
         <v>467.2</v>
@@ -1650,30 +2088,77 @@
         <f t="shared" si="0"/>
         <v>-0.80000000000001137</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="5">
         <v>466.4</v>
       </c>
       <c r="X15" s="9">
         <f t="shared" si="1"/>
         <v>-2.1999999999999886</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" s="5">
         <v>464.2</v>
       </c>
       <c r="Z15" s="9">
+        <f t="shared" si="12"/>
+        <v>-464.2</v>
+      </c>
+      <c r="AB15" s="9">
         <f t="shared" si="2"/>
-        <v>-464.2</v>
-      </c>
-      <c r="AB15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD15" s="9">
+      <c r="AF15" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AH15" s="9">
+        <f t="shared" si="5"/>
+        <v>464</v>
+      </c>
+      <c r="AI15" s="5">
+        <v>464</v>
+      </c>
+      <c r="AJ15" s="9">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+      <c r="AK15" s="5">
+        <v>462</v>
+      </c>
+      <c r="AL15" s="9">
+        <f t="shared" si="7"/>
+        <v>-4</v>
+      </c>
+      <c r="AM15" s="5">
+        <v>458</v>
+      </c>
+      <c r="AN15" s="9">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="AO15" s="5">
+        <v>457</v>
+      </c>
+      <c r="AP15" s="9">
+        <f t="shared" si="9"/>
+        <v>-1.3999999999999773</v>
+      </c>
+      <c r="AQ15" s="5">
+        <v>455.6</v>
+      </c>
+      <c r="AR15" s="9">
+        <f t="shared" si="10"/>
+        <v>-455.6</v>
+      </c>
+      <c r="AT15" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>26</v>
       </c>
@@ -1716,36 +2201,94 @@
       <c r="Y16" s="13">
         <v>4339</v>
       </c>
-      <c r="Z16" s="16">
-        <f t="shared" si="2"/>
+      <c r="Z16" s="9">
+        <f t="shared" si="12"/>
         <v>-4339</v>
       </c>
       <c r="AA16" s="13"/>
       <c r="AB16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC16" s="13"/>
       <c r="AD16" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="16">
+        <f t="shared" si="5"/>
+        <v>3280</v>
+      </c>
+      <c r="AI16" s="13">
+        <v>3280</v>
+      </c>
+      <c r="AJ16" s="16">
+        <f t="shared" si="6"/>
+        <v>691</v>
+      </c>
+      <c r="AK16" s="13">
+        <v>3971</v>
+      </c>
+      <c r="AL16" s="16">
+        <f t="shared" si="7"/>
+        <v>-54</v>
+      </c>
+      <c r="AM16" s="13">
+        <v>3917</v>
+      </c>
+      <c r="AN16" s="16">
+        <f t="shared" si="8"/>
+        <v>3269</v>
+      </c>
+      <c r="AO16" s="13">
+        <v>7186</v>
+      </c>
+      <c r="AP16" s="16">
+        <f t="shared" si="9"/>
+        <v>587</v>
+      </c>
+      <c r="AQ16" s="13">
+        <v>7773</v>
+      </c>
+      <c r="AR16" s="16">
+        <f t="shared" si="10"/>
+        <v>-7773</v>
+      </c>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="T17" s="17"/>
       <c r="Z17" s="17"/>
       <c r="AB17" s="17"/>
       <c r="AD17" s="17"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AF17" s="17"/>
+      <c r="AH17" s="17"/>
+      <c r="AJ17" s="17"/>
+      <c r="AL17" s="17"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="T18" s="17"/>
       <c r="Z18" s="17"/>
       <c r="AB18" s="17"/>
       <c r="AD18" s="17"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AF18" s="17"/>
+      <c r="AH18" s="17"/>
+      <c r="AJ18" s="17"/>
+      <c r="AL18" s="17"/>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
@@ -1767,8 +2310,20 @@
       <c r="AD19" s="20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AF19" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH19" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ19" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL19" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>39</v>
       </c>
@@ -1790,8 +2345,20 @@
       <c r="AD20" s="20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AF20" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH20" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ20" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL20" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -1813,8 +2380,20 @@
       <c r="AD21" s="20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AF21" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH21" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ21" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL21" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -1836,8 +2415,20 @@
       <c r="AD22" s="20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AF22" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH22" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ22" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL22" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
@@ -1859,8 +2450,20 @@
       <c r="AD23" s="20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AF23" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH23" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ23" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL23" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -1882,8 +2485,20 @@
       <c r="AD24" s="20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AF24" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH24" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ24" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL24" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
@@ -1908,8 +2523,20 @@
       <c r="AD25" s="20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AF25" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH25" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ25" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL25" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>37</v>
       </c>
@@ -1931,8 +2558,20 @@
       <c r="AD26" s="20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AF26" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH26" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ26" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL26" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>38</v>
       </c>
@@ -1954,8 +2593,20 @@
       <c r="AD27" s="20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AF27" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH27" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ27" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL27" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -1977,8 +2628,20 @@
       <c r="AD28" s="20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AF28" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH28" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ28" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL28" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
@@ -2000,21 +2663,35 @@
       <c r="AD29" s="20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AF29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL29" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="T30" s="17"/>
       <c r="Z30" s="17"/>
       <c r="AB30" s="17"/>
       <c r="AD30" s="17"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AF30" s="17"/>
+      <c r="AH30" s="17"/>
+      <c r="AJ30" s="17"/>
+      <c r="AL30" s="17"/>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="Z31" s="17"/>
-      <c r="AB31" s="17"/>
-      <c r="AD31" s="17"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
     </row>
   </sheetData>
@@ -2031,11 +2708,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB6C7BA-262C-4899-BE72-FB33CE199B92}">
   <dimension ref="A1:AA37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="S5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Y26" sqref="Y26"/>
+      <selection pane="bottomRight" activeCell="AA61" sqref="AA61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
